--- a/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
+++ b/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\zz Non-LeetCode\Random Study Session 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C800BE35-79D7-464B-BFE2-A9A30512A5F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE881DC-CF3B-40A2-A72F-BA086E49E2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -385,8 +385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AC32" sqref="AC32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,9 +1182,6 @@
       <c r="AB32" s="1">
         <v>18</v>
       </c>
-      <c r="AC32" s="1">
-        <v>18</v>
-      </c>
     </row>
     <row r="33" spans="4:29" x14ac:dyDescent="0.25">
       <c r="D33" s="1" t="s">
@@ -1245,7 +1242,7 @@
         <v>18</v>
       </c>
       <c r="AC33" s="1">
-        <v>18</v>
+        <v>25</v>
       </c>
     </row>
     <row r="34" spans="4:29" x14ac:dyDescent="0.25">

--- a/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
+++ b/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\zz Non-LeetCode\Random Study Session 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EE881DC-CF3B-40A2-A72F-BA086E49E2D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FBCBB7-07FD-4DD7-84B2-CBAF6FFFB28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
   <si>
     <t>Size</t>
   </si>
@@ -61,6 +63,27 @@
   <si>
     <t>W</t>
   </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>sorted</t>
+  </si>
+  <si>
+    <t>original</t>
+  </si>
+  <si>
+    <t>ind</t>
+  </si>
 </sst>
 </file>
 
@@ -75,12 +98,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -95,12 +124,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -385,8 +420,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B3:AC51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC32" sqref="AC32"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1459,7 @@
   <dimension ref="A7:R19"/>
   <sheetViews>
     <sheetView topLeftCell="A6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1598,4 +1633,1284 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE5FE27F-F435-40AF-86E5-F90DB6286A86}">
+  <dimension ref="E8:AE46"/>
+  <sheetViews>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="S41" sqref="S41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="4.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="1">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="R9" s="1">
+        <v>0</v>
+      </c>
+      <c r="S9" s="1">
+        <v>1</v>
+      </c>
+      <c r="T9" s="1">
+        <v>2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3</v>
+      </c>
+      <c r="V9" s="1">
+        <v>4</v>
+      </c>
+      <c r="W9" s="1">
+        <v>5</v>
+      </c>
+      <c r="X9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E10" s="1">
+        <v>0</v>
+      </c>
+      <c r="F10" s="1">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>1</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+      <c r="R10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W10" s="1">
+        <v>0</v>
+      </c>
+      <c r="X10" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="R11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U11" s="3">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W11" s="1">
+        <v>0</v>
+      </c>
+      <c r="X11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E12" s="1">
+        <v>0</v>
+      </c>
+      <c r="F12" s="1">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" s="1">
+        <v>1</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+      <c r="R14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+      <c r="W14" s="1">
+        <v>0</v>
+      </c>
+      <c r="X14" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="R15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U15" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="5:24" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>0</v>
+      </c>
+      <c r="F16" s="1">
+        <v>1</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="E18" s="1">
+        <v>0</v>
+      </c>
+      <c r="F18" s="1">
+        <v>1</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="I27" s="1">
+        <v>8800</v>
+      </c>
+      <c r="J27" s="1">
+        <v>11</v>
+      </c>
+      <c r="K27" s="1">
+        <f>I27/J27</f>
+        <v>800</v>
+      </c>
+    </row>
+    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+      <c r="K28" s="1">
+        <f>K27*4.8</f>
+        <v>3840</v>
+      </c>
+    </row>
+    <row r="33" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>1</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2</v>
+      </c>
+      <c r="H33" s="1">
+        <v>3</v>
+      </c>
+      <c r="I33" s="1">
+        <v>4</v>
+      </c>
+      <c r="J33" s="1">
+        <v>5</v>
+      </c>
+      <c r="K33" s="1">
+        <v>6</v>
+      </c>
+      <c r="L33" s="1">
+        <v>7</v>
+      </c>
+      <c r="M33" s="1">
+        <v>8</v>
+      </c>
+      <c r="N33" s="1">
+        <v>9</v>
+      </c>
+      <c r="O33" s="1">
+        <v>10</v>
+      </c>
+      <c r="P33" s="1">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>12</v>
+      </c>
+      <c r="R33" s="1">
+        <v>13</v>
+      </c>
+      <c r="S33" s="1">
+        <v>14</v>
+      </c>
+      <c r="T33" s="1">
+        <v>15</v>
+      </c>
+      <c r="U33" s="1">
+        <v>16</v>
+      </c>
+      <c r="V33" s="1">
+        <v>17</v>
+      </c>
+      <c r="W33" s="1">
+        <v>18</v>
+      </c>
+      <c r="X33" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="34" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="E34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="L34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="M34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="N34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R34" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="U34" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="V34" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="W34" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="X34" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="S41" s="3">
+        <v>1</v>
+      </c>
+      <c r="T41" s="3">
+        <v>1</v>
+      </c>
+      <c r="U41" s="3">
+        <v>1</v>
+      </c>
+      <c r="V41" s="3">
+        <v>0</v>
+      </c>
+      <c r="W41" s="1">
+        <v>0</v>
+      </c>
+      <c r="X41" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+      <c r="T42" s="3">
+        <v>1</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+      <c r="W42" s="1">
+        <v>0</v>
+      </c>
+      <c r="X42" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD42" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="S43" s="3">
+        <v>1</v>
+      </c>
+      <c r="T43" s="3">
+        <v>1</v>
+      </c>
+      <c r="U43" s="3">
+        <v>1</v>
+      </c>
+      <c r="V43" s="3">
+        <v>0</v>
+      </c>
+      <c r="W43" s="1">
+        <v>0</v>
+      </c>
+      <c r="X43" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+      <c r="W44" s="1">
+        <v>0</v>
+      </c>
+      <c r="X44" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="S45" s="1">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1">
+        <v>0</v>
+      </c>
+      <c r="U45" s="1">
+        <v>0</v>
+      </c>
+      <c r="V45" s="1">
+        <v>0</v>
+      </c>
+      <c r="W45" s="1">
+        <v>0</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:31" x14ac:dyDescent="0.25">
+      <c r="S46" s="1">
+        <v>0</v>
+      </c>
+      <c r="T46" s="1">
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <v>0</v>
+      </c>
+      <c r="V46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1">
+        <v>0</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8B31D5-BEF0-4EA6-82A1-355ACF1E798D}">
+  <dimension ref="E8:AN32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N36" sqref="N36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="4.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="8" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>2</v>
+      </c>
+      <c r="J8" s="1">
+        <v>3</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5</v>
+      </c>
+      <c r="M8" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>0</v>
+      </c>
+      <c r="R8" s="1">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>2</v>
+      </c>
+      <c r="T8" s="1">
+        <v>3</v>
+      </c>
+      <c r="U8" s="1">
+        <v>4</v>
+      </c>
+      <c r="V8" s="1">
+        <v>5</v>
+      </c>
+      <c r="W8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G9" s="3">
+        <v>7</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3</v>
+      </c>
+      <c r="J9" s="3">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>4</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5</v>
+      </c>
+      <c r="M9" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>7</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="1">
+        <v>3</v>
+      </c>
+      <c r="T9" s="1">
+        <v>2</v>
+      </c>
+      <c r="U9" s="1">
+        <v>4</v>
+      </c>
+      <c r="V9" s="1">
+        <v>5</v>
+      </c>
+      <c r="W9" s="1">
+        <v>6</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>8</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>9</v>
+      </c>
+      <c r="AH9" s="1">
+        <v>10</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G10" s="3">
+        <v>2</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>4</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>7</v>
+      </c>
+      <c r="S10" s="1">
+        <v>3</v>
+      </c>
+      <c r="T10" s="3">
+        <v>2</v>
+      </c>
+      <c r="U10" s="1">
+        <v>4</v>
+      </c>
+      <c r="V10" s="1">
+        <v>5</v>
+      </c>
+      <c r="W10" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>2</v>
+      </c>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="3">
+        <v>7</v>
+      </c>
+      <c r="K11" s="3">
+        <v>4</v>
+      </c>
+      <c r="L11" s="1">
+        <v>5</v>
+      </c>
+      <c r="M11" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1">
+        <v>2</v>
+      </c>
+      <c r="S11" s="1">
+        <v>3</v>
+      </c>
+      <c r="T11" s="3">
+        <v>7</v>
+      </c>
+      <c r="U11" s="3">
+        <v>4</v>
+      </c>
+      <c r="V11" s="1">
+        <v>5</v>
+      </c>
+      <c r="W11" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1">
+        <v>4</v>
+      </c>
+      <c r="K12" s="3">
+        <v>7</v>
+      </c>
+      <c r="L12" s="3">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1">
+        <v>2</v>
+      </c>
+      <c r="S12" s="1">
+        <v>3</v>
+      </c>
+      <c r="T12" s="1">
+        <v>4</v>
+      </c>
+      <c r="U12" s="3">
+        <v>7</v>
+      </c>
+      <c r="V12" s="3">
+        <v>5</v>
+      </c>
+      <c r="W12" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1">
+        <v>4</v>
+      </c>
+      <c r="K13" s="1">
+        <v>5</v>
+      </c>
+      <c r="L13" s="3">
+        <v>7</v>
+      </c>
+      <c r="M13" s="3">
+        <v>6</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="1">
+        <v>2</v>
+      </c>
+      <c r="S13" s="1">
+        <v>3</v>
+      </c>
+      <c r="T13" s="1">
+        <v>4</v>
+      </c>
+      <c r="U13" s="1">
+        <v>5</v>
+      </c>
+      <c r="V13" s="3">
+        <v>7</v>
+      </c>
+      <c r="W13" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="7:35" x14ac:dyDescent="0.25">
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>2</v>
+      </c>
+      <c r="I14" s="1">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1">
+        <v>4</v>
+      </c>
+      <c r="K14" s="1">
+        <v>5</v>
+      </c>
+      <c r="L14" s="1">
+        <v>6</v>
+      </c>
+      <c r="M14" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>3</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>5</v>
+      </c>
+      <c r="V14" s="1">
+        <v>6</v>
+      </c>
+      <c r="W14" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="G17" s="3">
+        <v>4</v>
+      </c>
+      <c r="H17" s="1">
+        <v>3</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>2</v>
+      </c>
+      <c r="M17" s="3">
+        <v>4</v>
+      </c>
+      <c r="N17" s="1">
+        <v>3</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="1">
+        <v>2</v>
+      </c>
+      <c r="S17" s="3">
+        <v>4</v>
+      </c>
+      <c r="T17" s="3">
+        <v>3</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1</v>
+      </c>
+      <c r="V17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>3</v>
+      </c>
+      <c r="I18" s="3">
+        <v>4</v>
+      </c>
+      <c r="J18" s="3">
+        <v>2</v>
+      </c>
+      <c r="M18" s="1">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>3</v>
+      </c>
+      <c r="O18" s="1">
+        <v>4</v>
+      </c>
+      <c r="P18" s="3">
+        <v>2</v>
+      </c>
+      <c r="S18" s="3">
+        <v>3</v>
+      </c>
+      <c r="T18" s="4">
+        <v>4</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="V18" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="G19" s="1">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>3</v>
+      </c>
+      <c r="I19" s="3">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>4</v>
+      </c>
+      <c r="M19" s="1">
+        <v>1</v>
+      </c>
+      <c r="N19" s="1">
+        <v>2</v>
+      </c>
+      <c r="O19" s="3">
+        <v>4</v>
+      </c>
+      <c r="P19" s="3">
+        <v>3</v>
+      </c>
+      <c r="S19" s="1">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>4</v>
+      </c>
+      <c r="U19" s="1">
+        <v>3</v>
+      </c>
+      <c r="V19" s="3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="G20" s="1">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>2</v>
+      </c>
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1">
+        <v>4</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1</v>
+      </c>
+      <c r="N20" s="1">
+        <v>2</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3</v>
+      </c>
+      <c r="P20" s="1">
+        <v>4</v>
+      </c>
+      <c r="S20" s="1">
+        <v>1</v>
+      </c>
+      <c r="T20" s="1">
+        <v>2</v>
+      </c>
+      <c r="U20" s="1">
+        <v>3</v>
+      </c>
+      <c r="V20" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="G25" s="3">
+        <v>0</v>
+      </c>
+      <c r="H25" s="3">
+        <v>1</v>
+      </c>
+      <c r="I25" s="3">
+        <v>2</v>
+      </c>
+      <c r="J25" s="3">
+        <v>3</v>
+      </c>
+      <c r="K25" s="3">
+        <v>4</v>
+      </c>
+      <c r="L25" s="3">
+        <v>5</v>
+      </c>
+      <c r="M25" s="3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E26" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G26" s="1">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1">
+        <v>2</v>
+      </c>
+      <c r="I26" s="1">
+        <v>3</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>5</v>
+      </c>
+      <c r="L26" s="1">
+        <v>6</v>
+      </c>
+      <c r="M26" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q26" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R26" s="1">
+        <v>1</v>
+      </c>
+      <c r="S26" s="1">
+        <v>2</v>
+      </c>
+      <c r="T26" s="1">
+        <v>3</v>
+      </c>
+      <c r="U26" s="1">
+        <v>4</v>
+      </c>
+      <c r="V26" s="1">
+        <v>5</v>
+      </c>
+      <c r="W26" s="1">
+        <v>6</v>
+      </c>
+      <c r="X26" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="E27" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G27" s="1">
+        <v>7</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1</v>
+      </c>
+      <c r="I27" s="1">
+        <v>3</v>
+      </c>
+      <c r="J27" s="1">
+        <v>2</v>
+      </c>
+      <c r="K27" s="1">
+        <v>4</v>
+      </c>
+      <c r="L27" s="1">
+        <v>5</v>
+      </c>
+      <c r="M27" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="R27" s="1">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1">
+        <v>3</v>
+      </c>
+      <c r="T27" s="1">
+        <v>2</v>
+      </c>
+      <c r="U27" s="1">
+        <v>4</v>
+      </c>
+      <c r="V27" s="1">
+        <v>5</v>
+      </c>
+      <c r="W27" s="1">
+        <v>6</v>
+      </c>
+      <c r="X27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="1">
+        <v>0</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL27" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN27" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="AJ28" s="1">
+        <v>1</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL28" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN28" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="AC29" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD29" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="AC30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ30" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>0</v>
+      </c>
+      <c r="AL30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN30" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="5:40" x14ac:dyDescent="0.25">
+      <c r="AC32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
+++ b/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
@@ -8,15 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\zz Non-LeetCode\Random Study Session 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65FBCBB7-07FD-4DD7-84B2-CBAF6FFFB28F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1100F2B8-1920-429D-9467-437AE9F65957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
   <si>
     <t>Size</t>
   </si>
@@ -84,12 +86,15 @@
   <si>
     <t>ind</t>
   </si>
+  <si>
+    <t>fake</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -97,8 +102,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -108,6 +120,36 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -124,7 +166,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -136,6 +178,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2190,8 +2250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C8B31D5-BEF0-4EA6-82A1-355ACF1E798D}">
   <dimension ref="E8:AN32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N36" sqref="N36"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="AB12" sqref="AB12:AC12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2913,4 +2973,2119 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDA68E63-F76F-4491-9D9D-C6F95372EFD5}">
+  <dimension ref="D2:BB118"/>
+  <sheetViews>
+    <sheetView topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="V121" sqref="V121"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="34" width="4.7109375" style="1"/>
+    <col min="35" max="35" width="4.7109375" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="4.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="AV2" s="5">
+        <v>7</v>
+      </c>
+      <c r="AW2" s="5">
+        <v>4</v>
+      </c>
+      <c r="AX2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY2" s="5">
+        <v>6</v>
+      </c>
+      <c r="AZ2" s="5">
+        <v>3</v>
+      </c>
+      <c r="BA2" s="5">
+        <v>2</v>
+      </c>
+      <c r="BB2" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="AV3" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX3" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="AX4" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="AW5" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="Z6" s="1">
+        <v>7</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AY6" s="1">
+        <v>4</v>
+      </c>
+      <c r="BA6" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="AX7" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>2</v>
+      </c>
+      <c r="I10" s="5">
+        <v>3</v>
+      </c>
+      <c r="J10" s="5">
+        <v>4</v>
+      </c>
+      <c r="K10" s="5">
+        <v>5</v>
+      </c>
+      <c r="L10" s="5">
+        <v>6</v>
+      </c>
+      <c r="M10" s="5">
+        <v>7</v>
+      </c>
+      <c r="P10" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="5">
+        <v>2</v>
+      </c>
+      <c r="R10" s="5">
+        <v>3</v>
+      </c>
+      <c r="S10" s="5">
+        <v>4</v>
+      </c>
+      <c r="T10" s="5">
+        <v>5</v>
+      </c>
+      <c r="U10" s="5">
+        <v>6</v>
+      </c>
+      <c r="V10" s="5">
+        <v>7</v>
+      </c>
+      <c r="AV10" s="5">
+        <v>7</v>
+      </c>
+      <c r="AW10" s="5">
+        <v>4</v>
+      </c>
+      <c r="AX10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AY10" s="5">
+        <v>6</v>
+      </c>
+      <c r="AZ10" s="5">
+        <v>3</v>
+      </c>
+      <c r="BA10" s="5">
+        <v>2</v>
+      </c>
+      <c r="BB10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <v>7</v>
+      </c>
+      <c r="M11" s="1">
+        <v>5</v>
+      </c>
+      <c r="T11" s="1">
+        <v>7</v>
+      </c>
+      <c r="V11" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT11" s="1">
+        <v>7</v>
+      </c>
+      <c r="AV11" s="1">
+        <v>5</v>
+      </c>
+      <c r="BB11" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="G12" s="1">
+        <v>7</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+      <c r="P12" s="1">
+        <v>7</v>
+      </c>
+      <c r="T12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>5</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>1</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <v>7</v>
+      </c>
+      <c r="H13" s="5">
+        <v>2</v>
+      </c>
+      <c r="I13" s="5">
+        <v>3</v>
+      </c>
+      <c r="J13" s="5">
+        <v>4</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>6</v>
+      </c>
+      <c r="M13" s="5">
+        <v>5</v>
+      </c>
+      <c r="P13" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>2</v>
+      </c>
+      <c r="R13" s="5">
+        <v>3</v>
+      </c>
+      <c r="S13" s="5">
+        <v>4</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5">
+        <v>6</v>
+      </c>
+      <c r="V13" s="5">
+        <v>5</v>
+      </c>
+      <c r="AT13" s="1">
+        <v>4</v>
+      </c>
+      <c r="AW13" s="1">
+        <v>2</v>
+      </c>
+      <c r="BA13" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="H14" s="1">
+        <v>4</v>
+      </c>
+      <c r="J14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>2</v>
+      </c>
+      <c r="AT14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AX14" s="1">
+        <v>3</v>
+      </c>
+      <c r="AZ14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="I15" s="1">
+        <v>1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>3</v>
+      </c>
+      <c r="R15" s="1">
+        <v>1</v>
+      </c>
+      <c r="T15" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="7:54" x14ac:dyDescent="0.25">
+      <c r="J16" s="1">
+        <v>6</v>
+      </c>
+      <c r="L16" s="1">
+        <v>2</v>
+      </c>
+      <c r="S16" s="1">
+        <v>6</v>
+      </c>
+      <c r="U16" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="6"/>
+      <c r="AA16" s="6"/>
+      <c r="AB16" s="6"/>
+      <c r="AC16" s="6"/>
+      <c r="AD16" s="6"/>
+      <c r="AE16" s="6"/>
+      <c r="AF16" s="6"/>
+      <c r="AI16" s="6"/>
+      <c r="AJ16" s="6"/>
+      <c r="AK16" s="6"/>
+      <c r="AL16" s="6"/>
+      <c r="AM16" s="6"/>
+      <c r="AN16" s="6"/>
+      <c r="AO16" s="6"/>
+      <c r="AQ16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="G17" s="5">
+        <v>7</v>
+      </c>
+      <c r="H17" s="5">
+        <v>4</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>6</v>
+      </c>
+      <c r="K17" s="5">
+        <v>3</v>
+      </c>
+      <c r="L17" s="5">
+        <v>2</v>
+      </c>
+      <c r="M17" s="5">
+        <v>5</v>
+      </c>
+      <c r="P17" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>4</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5">
+        <v>6</v>
+      </c>
+      <c r="T17" s="5">
+        <v>3</v>
+      </c>
+      <c r="U17" s="5">
+        <v>2</v>
+      </c>
+      <c r="V17" s="5">
+        <v>5</v>
+      </c>
+      <c r="AQ17" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ18" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="H19" s="1">
+        <v>2</v>
+      </c>
+      <c r="L19" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ19" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="K20" s="1">
+        <v>7</v>
+      </c>
+      <c r="AQ20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="J21" s="1">
+        <v>4</v>
+      </c>
+      <c r="L21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AQ21" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR21" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="K22" s="1">
+        <v>5</v>
+      </c>
+      <c r="M22" s="1">
+        <v>7</v>
+      </c>
+      <c r="Z22" s="1">
+        <f>Z25</f>
+        <v>7</v>
+      </c>
+      <c r="AA22" s="1">
+        <f t="shared" ref="AA22:AF22" si="0">AA25</f>
+        <v>4</v>
+      </c>
+      <c r="AB22" s="1">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="AC22" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="AD22" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="AE22" s="1">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="AF22" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+      <c r="AI22" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK22" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL22" s="6">
+        <v>3</v>
+      </c>
+      <c r="AM22" s="6">
+        <v>4</v>
+      </c>
+      <c r="AN22" s="6">
+        <v>5</v>
+      </c>
+      <c r="AO22" s="6">
+        <v>6</v>
+      </c>
+      <c r="AQ22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="Z23" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB23" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC23" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD23" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE23" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF23" s="6">
+        <v>6</v>
+      </c>
+      <c r="AH23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN23" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO23" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="Y24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI24" s="1">
+        <f>HLOOKUP(AI23,$Z$22:$AF$25,3,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AJ24" s="1">
+        <f t="shared" ref="AJ24:AO24" si="1">HLOOKUP(AJ23,$Z$22:$AF$25,3,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="AK24" s="1">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="AL24" s="1">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="AM24" s="1">
+        <f t="shared" si="1"/>
+        <v>7</v>
+      </c>
+      <c r="AN24" s="1">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="AO24" s="1">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="Z25" s="10">
+        <v>7</v>
+      </c>
+      <c r="AA25" s="10">
+        <v>4</v>
+      </c>
+      <c r="AB25" s="10">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD25" s="10">
+        <v>3</v>
+      </c>
+      <c r="AE25" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF25" s="10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="AI26" s="7">
+        <f>AI23-AI24</f>
+        <v>-2</v>
+      </c>
+      <c r="AJ26" s="7">
+        <f t="shared" ref="AJ26:AO26" si="2">AJ23-AJ24</f>
+        <v>-2</v>
+      </c>
+      <c r="AK26" s="7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="AL26" s="7">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="AM26" s="7">
+        <f t="shared" si="2"/>
+        <v>-2</v>
+      </c>
+      <c r="AN26" s="7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AO26" s="7">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="AI28" s="5">
+        <f>HLOOKUP(AI24+AI26,$Z$24:$AF$25,2,FALSE)</f>
+        <v>7</v>
+      </c>
+      <c r="AJ28" s="5">
+        <f>HLOOKUP(AJ24+AJ26,$Z$24:$AF$25,2,FALSE)</f>
+        <v>4</v>
+      </c>
+      <c r="AK28" s="5">
+        <f>HLOOKUP(AK24+AK26,$Z$24:$AF$25,2,FALSE)</f>
+        <v>1</v>
+      </c>
+      <c r="AL28" s="5">
+        <f>HLOOKUP(AL24+AL26,$Z$24:$AF$25,2,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AM28" s="5">
+        <f>HLOOKUP(AM24+AM26,$Z$24:$AF$25,2,FALSE)</f>
+        <v>3</v>
+      </c>
+      <c r="AN28" s="5">
+        <f>HLOOKUP(AN24+AN26,$Z$24:$AF$25,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AO28" s="5">
+        <f>HLOOKUP(AO24+AO26,$Z$24:$AF$25,2,FALSE)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="AI29" s="8">
+        <f>HLOOKUP(AI28,$AI$23:$AO$26,4,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AJ29" s="8">
+        <f t="shared" ref="AJ29:AO29" si="3">HLOOKUP(AJ28,$AI$23:$AO$26,4,FALSE)</f>
+        <v>2</v>
+      </c>
+      <c r="AK29" s="8">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AL29" s="8">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AM29" s="8">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+      <c r="AN29" s="8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AO29" s="8">
+        <f t="shared" si="3"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="31" spans="7:44" x14ac:dyDescent="0.25">
+      <c r="AI31" s="9">
+        <f>AI29+AI26</f>
+        <v>4</v>
+      </c>
+      <c r="AJ31" s="9">
+        <f>AJ29+AJ26</f>
+        <v>0</v>
+      </c>
+      <c r="AK31" s="9">
+        <f>AK29+AK26</f>
+        <v>-4</v>
+      </c>
+      <c r="AL31" s="9">
+        <f>AL29+AL26</f>
+        <v>0</v>
+      </c>
+      <c r="AM31" s="9">
+        <f>AM29+AM26</f>
+        <v>-4</v>
+      </c>
+      <c r="AN31" s="9">
+        <f>AN29+AN26</f>
+        <v>0</v>
+      </c>
+      <c r="AO31" s="9">
+        <f>AO29+AO26</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="F34" s="6">
+        <v>0</v>
+      </c>
+      <c r="G34" s="6">
+        <v>1</v>
+      </c>
+      <c r="H34" s="6">
+        <v>2</v>
+      </c>
+      <c r="I34" s="6">
+        <v>3</v>
+      </c>
+      <c r="J34" s="6">
+        <v>4</v>
+      </c>
+      <c r="K34" s="6">
+        <v>5</v>
+      </c>
+      <c r="L34" s="6">
+        <v>6</v>
+      </c>
+      <c r="O34" s="6">
+        <v>0</v>
+      </c>
+      <c r="P34" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="6">
+        <v>2</v>
+      </c>
+      <c r="R34" s="6">
+        <v>3</v>
+      </c>
+      <c r="S34" s="6">
+        <v>4</v>
+      </c>
+      <c r="T34" s="6">
+        <v>5</v>
+      </c>
+      <c r="U34" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="1">
+        <v>1</v>
+      </c>
+      <c r="G35" s="1">
+        <v>2</v>
+      </c>
+      <c r="H35" s="1">
+        <v>3</v>
+      </c>
+      <c r="I35" s="1">
+        <v>4</v>
+      </c>
+      <c r="J35" s="1">
+        <v>5</v>
+      </c>
+      <c r="K35" s="1">
+        <v>6</v>
+      </c>
+      <c r="L35" s="1">
+        <v>7</v>
+      </c>
+      <c r="N35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O35" s="1">
+        <v>1</v>
+      </c>
+      <c r="P35" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>3</v>
+      </c>
+      <c r="R35" s="1">
+        <v>4</v>
+      </c>
+      <c r="S35" s="1">
+        <v>5</v>
+      </c>
+      <c r="T35" s="1">
+        <v>6</v>
+      </c>
+      <c r="U35" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="F36" s="5">
+        <v>4</v>
+      </c>
+      <c r="G36" s="5">
+        <v>2</v>
+      </c>
+      <c r="H36" s="5">
+        <v>3</v>
+      </c>
+      <c r="I36" s="5">
+        <v>1</v>
+      </c>
+      <c r="J36" s="5">
+        <v>7</v>
+      </c>
+      <c r="K36" s="5">
+        <v>6</v>
+      </c>
+      <c r="L36" s="5">
+        <v>5</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4</v>
+      </c>
+      <c r="P36" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>3</v>
+      </c>
+      <c r="R36" s="1">
+        <v>1</v>
+      </c>
+      <c r="S36" s="1">
+        <v>7</v>
+      </c>
+      <c r="T36" s="1">
+        <v>6</v>
+      </c>
+      <c r="U36" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB36" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC36" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD36" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF36" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI36" s="6">
+        <v>0</v>
+      </c>
+      <c r="AJ36" s="6">
+        <v>1</v>
+      </c>
+      <c r="AK36" s="6">
+        <v>2</v>
+      </c>
+      <c r="AL36" s="6">
+        <v>3</v>
+      </c>
+      <c r="AM36" s="6">
+        <v>4</v>
+      </c>
+      <c r="AN36" s="6">
+        <v>5</v>
+      </c>
+      <c r="AO36" s="6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="Z37" s="6">
+        <v>0</v>
+      </c>
+      <c r="AA37" s="6">
+        <v>1</v>
+      </c>
+      <c r="AB37" s="6">
+        <v>2</v>
+      </c>
+      <c r="AC37" s="6">
+        <v>3</v>
+      </c>
+      <c r="AD37" s="6">
+        <v>4</v>
+      </c>
+      <c r="AE37" s="6">
+        <v>5</v>
+      </c>
+      <c r="AF37" s="6">
+        <v>6</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ37" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL37" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN37" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO37" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="O38" s="1">
+        <f>O35-O36</f>
+        <v>-3</v>
+      </c>
+      <c r="P38" s="1">
+        <f t="shared" ref="P38:U38" si="4">P35-P36</f>
+        <v>0</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R38" s="1">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="S38" s="1">
+        <f t="shared" si="4"/>
+        <v>-2</v>
+      </c>
+      <c r="T38" s="1">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U38" s="1">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+      <c r="Y38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB38" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC38" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD38" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF38" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ38" s="1">
+        <v>4</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL38" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN38" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO38" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="39" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="Z39" s="10">
+        <v>1</v>
+      </c>
+      <c r="AA39" s="10">
+        <v>4</v>
+      </c>
+      <c r="AB39" s="10">
+        <v>5</v>
+      </c>
+      <c r="AC39" s="10">
+        <v>2</v>
+      </c>
+      <c r="AD39" s="10">
+        <v>3</v>
+      </c>
+      <c r="AE39" s="10">
+        <v>6</v>
+      </c>
+      <c r="AF39" s="10">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="AI40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AJ40" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AK40" s="7">
+        <v>-2</v>
+      </c>
+      <c r="AL40" s="7">
+        <v>2</v>
+      </c>
+      <c r="AM40" s="7">
+        <v>2</v>
+      </c>
+      <c r="AN40" s="7">
+        <v>0</v>
+      </c>
+      <c r="AO40" s="7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="F42" s="6">
+        <v>0</v>
+      </c>
+      <c r="G42" s="6">
+        <v>1</v>
+      </c>
+      <c r="H42" s="6">
+        <v>2</v>
+      </c>
+      <c r="I42" s="6">
+        <v>3</v>
+      </c>
+      <c r="J42" s="6">
+        <v>4</v>
+      </c>
+      <c r="K42" s="6">
+        <v>5</v>
+      </c>
+      <c r="L42" s="6">
+        <v>6</v>
+      </c>
+      <c r="O42" s="6">
+        <v>0</v>
+      </c>
+      <c r="P42" s="6">
+        <v>1</v>
+      </c>
+      <c r="Q42" s="6">
+        <v>2</v>
+      </c>
+      <c r="R42" s="6">
+        <v>3</v>
+      </c>
+      <c r="S42" s="6">
+        <v>4</v>
+      </c>
+      <c r="T42" s="6">
+        <v>5</v>
+      </c>
+      <c r="U42" s="6">
+        <v>6</v>
+      </c>
+      <c r="AI42" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ42" s="5">
+        <v>4</v>
+      </c>
+      <c r="AK42" s="5">
+        <v>5</v>
+      </c>
+      <c r="AL42" s="5">
+        <v>2</v>
+      </c>
+      <c r="AM42" s="5">
+        <v>3</v>
+      </c>
+      <c r="AN42" s="5">
+        <v>6</v>
+      </c>
+      <c r="AO42" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1</v>
+      </c>
+      <c r="G43" s="1">
+        <v>2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>3</v>
+      </c>
+      <c r="I43" s="1">
+        <v>4</v>
+      </c>
+      <c r="J43" s="1">
+        <v>5</v>
+      </c>
+      <c r="K43" s="1">
+        <v>6</v>
+      </c>
+      <c r="L43" s="1">
+        <v>7</v>
+      </c>
+      <c r="N43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1</v>
+      </c>
+      <c r="P43" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>3</v>
+      </c>
+      <c r="R43" s="1">
+        <v>4</v>
+      </c>
+      <c r="S43" s="1">
+        <v>5</v>
+      </c>
+      <c r="T43" s="1">
+        <v>6</v>
+      </c>
+      <c r="U43" s="1">
+        <v>7</v>
+      </c>
+      <c r="AI43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AJ43" s="8">
+        <v>2</v>
+      </c>
+      <c r="AK43" s="8">
+        <v>2</v>
+      </c>
+      <c r="AL43" s="8">
+        <v>-2</v>
+      </c>
+      <c r="AM43" s="8">
+        <v>-2</v>
+      </c>
+      <c r="AN43" s="8">
+        <v>0</v>
+      </c>
+      <c r="AO43" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="F44" s="5">
+        <v>5</v>
+      </c>
+      <c r="G44" s="5">
+        <v>2</v>
+      </c>
+      <c r="H44" s="5">
+        <v>3</v>
+      </c>
+      <c r="I44" s="5">
+        <v>7</v>
+      </c>
+      <c r="J44" s="5">
+        <v>1</v>
+      </c>
+      <c r="K44" s="5">
+        <v>6</v>
+      </c>
+      <c r="L44" s="5">
+        <v>4</v>
+      </c>
+      <c r="O44" s="1">
+        <v>5</v>
+      </c>
+      <c r="P44" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>3</v>
+      </c>
+      <c r="R44" s="1">
+        <v>7</v>
+      </c>
+      <c r="S44" s="1">
+        <v>1</v>
+      </c>
+      <c r="T44" s="1">
+        <v>6</v>
+      </c>
+      <c r="U44" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="AI45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AJ45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AK45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AL45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AM45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AN45" s="9">
+        <v>0</v>
+      </c>
+      <c r="AO45" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="5:41" x14ac:dyDescent="0.25">
+      <c r="O46" s="1">
+        <f>O43-O44</f>
+        <v>-4</v>
+      </c>
+      <c r="P46" s="1">
+        <f t="shared" ref="P46:U46" si="5">P43-P44</f>
+        <v>0</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R46" s="1">
+        <f t="shared" si="5"/>
+        <v>-3</v>
+      </c>
+      <c r="S46" s="1">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="T46" s="1">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="U46" s="1">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P69" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>1</v>
+      </c>
+      <c r="R69" s="1">
+        <v>5</v>
+      </c>
+      <c r="S69" s="1">
+        <v>3</v>
+      </c>
+      <c r="T69" s="1">
+        <v>4</v>
+      </c>
+      <c r="V69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P70" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>2</v>
+      </c>
+      <c r="R70" s="1">
+        <v>5</v>
+      </c>
+      <c r="S70" s="1">
+        <v>3</v>
+      </c>
+      <c r="T70" s="1">
+        <v>4</v>
+      </c>
+      <c r="V70" s="1">
+        <v>2</v>
+      </c>
+      <c r="W70" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P71" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>2</v>
+      </c>
+      <c r="R71" s="1">
+        <v>4</v>
+      </c>
+      <c r="S71" s="1">
+        <v>3</v>
+      </c>
+      <c r="T71" s="1">
+        <v>5</v>
+      </c>
+      <c r="V71" s="1">
+        <v>5</v>
+      </c>
+      <c r="W71" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P72" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>2</v>
+      </c>
+      <c r="R72" s="1">
+        <v>3</v>
+      </c>
+      <c r="S72" s="1">
+        <v>4</v>
+      </c>
+      <c r="T72" s="1">
+        <v>5</v>
+      </c>
+      <c r="V72" s="1">
+        <v>4</v>
+      </c>
+      <c r="W72" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="V73" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P79" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>5</v>
+      </c>
+      <c r="R79" s="1">
+        <v>1</v>
+      </c>
+      <c r="S79" s="1">
+        <v>3</v>
+      </c>
+      <c r="T79" s="1">
+        <v>4</v>
+      </c>
+      <c r="W79" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="16:24" x14ac:dyDescent="0.25">
+      <c r="P80" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>5</v>
+      </c>
+      <c r="R80" s="1">
+        <v>2</v>
+      </c>
+      <c r="S80" s="1">
+        <v>3</v>
+      </c>
+      <c r="T80" s="1">
+        <v>4</v>
+      </c>
+      <c r="W80" s="1">
+        <v>2</v>
+      </c>
+      <c r="X80" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="P81" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>4</v>
+      </c>
+      <c r="R81" s="1">
+        <v>2</v>
+      </c>
+      <c r="S81" s="1">
+        <v>3</v>
+      </c>
+      <c r="T81" s="1">
+        <v>5</v>
+      </c>
+      <c r="W81" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="P82" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>2</v>
+      </c>
+      <c r="R82" s="1">
+        <v>4</v>
+      </c>
+      <c r="S82" s="1">
+        <v>3</v>
+      </c>
+      <c r="T82" s="1">
+        <v>5</v>
+      </c>
+      <c r="W82" s="1">
+        <v>4</v>
+      </c>
+      <c r="X82" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="P83" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>2</v>
+      </c>
+      <c r="R83" s="1">
+        <v>3</v>
+      </c>
+      <c r="S83" s="1">
+        <v>4</v>
+      </c>
+      <c r="T83" s="1">
+        <v>5</v>
+      </c>
+      <c r="W83" s="1">
+        <v>5</v>
+      </c>
+      <c r="X83" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="AB94" s="1">
+        <f>AB96</f>
+        <v>3</v>
+      </c>
+      <c r="AC94" s="1">
+        <f t="shared" ref="AC94:AG94" si="6">AC96</f>
+        <v>4</v>
+      </c>
+      <c r="AD94" s="1">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="AE94" s="1">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="AF94" s="1">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="AG94" s="1">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="AK94" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL94" s="1">
+        <v>4</v>
+      </c>
+      <c r="AM94" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN94" s="1">
+        <v>6</v>
+      </c>
+      <c r="AO94" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP94" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR94" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D95" s="1">
+        <v>1</v>
+      </c>
+      <c r="E95" s="1">
+        <v>2</v>
+      </c>
+      <c r="F95" s="1">
+        <v>3</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4</v>
+      </c>
+      <c r="H95" s="1">
+        <v>5</v>
+      </c>
+      <c r="I95" s="1">
+        <v>6</v>
+      </c>
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
+      <c r="O95" s="1">
+        <v>1</v>
+      </c>
+      <c r="P95" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>3</v>
+      </c>
+      <c r="R95" s="1">
+        <v>4</v>
+      </c>
+      <c r="S95" s="1">
+        <v>5</v>
+      </c>
+      <c r="T95" s="1">
+        <v>6</v>
+      </c>
+      <c r="W95" s="1">
+        <v>1</v>
+      </c>
+      <c r="X95" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD95" s="1">
+        <v>3</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF95" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG95" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN95" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO95" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR95" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="96" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="H96" s="1">
+        <v>6</v>
+      </c>
+      <c r="I96" s="1">
+        <v>5</v>
+      </c>
+      <c r="L96" s="1">
+        <v>2</v>
+      </c>
+      <c r="O96" s="1">
+        <v>2</v>
+      </c>
+      <c r="P96" s="1">
+        <v>1</v>
+      </c>
+      <c r="W96" s="1">
+        <v>2</v>
+      </c>
+      <c r="X96" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC96" s="1">
+        <v>4</v>
+      </c>
+      <c r="AD96" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF96" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM96" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN96" s="1">
+        <v>5</v>
+      </c>
+      <c r="AR96" s="1">
+        <v>3</v>
+      </c>
+      <c r="AS96" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="G97" s="1">
+        <v>6</v>
+      </c>
+      <c r="H97" s="1">
+        <v>4</v>
+      </c>
+      <c r="L97" s="1">
+        <v>3</v>
+      </c>
+      <c r="P97" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>1</v>
+      </c>
+      <c r="W97" s="1">
+        <v>3</v>
+      </c>
+      <c r="X97" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL97" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM97" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR97" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS97" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="D98" s="1">
+        <v>1</v>
+      </c>
+      <c r="E98" s="1">
+        <v>2</v>
+      </c>
+      <c r="F98" s="1">
+        <v>3</v>
+      </c>
+      <c r="G98" s="1">
+        <v>4</v>
+      </c>
+      <c r="H98" s="1">
+        <v>5</v>
+      </c>
+      <c r="I98" s="1">
+        <v>6</v>
+      </c>
+      <c r="L98" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>4</v>
+      </c>
+      <c r="R98" s="1">
+        <v>1</v>
+      </c>
+      <c r="W98" s="1">
+        <v>4</v>
+      </c>
+      <c r="X98" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB98" s="1">
+        <f>HLOOKUP(AB95,$AB$94:$AG$96,2,FALSE)</f>
+        <v>5</v>
+      </c>
+      <c r="AC98" s="1">
+        <f t="shared" ref="AC98:AG98" si="7">HLOOKUP(AC95,$AB$94:$AG$96,2,FALSE)</f>
+        <v>6</v>
+      </c>
+      <c r="AD98" s="1">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="AE98" s="1">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="AF98" s="1">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="AG98" s="1">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="AK98" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL98" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR98" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS98" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="L99" s="1">
+        <v>5</v>
+      </c>
+      <c r="R99" s="1">
+        <v>5</v>
+      </c>
+      <c r="S99" s="1">
+        <v>1</v>
+      </c>
+      <c r="W99" s="1">
+        <v>5</v>
+      </c>
+      <c r="X99" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK99" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL99" s="1">
+        <v>3</v>
+      </c>
+      <c r="AM99" s="1">
+        <v>4</v>
+      </c>
+      <c r="AN99" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO99" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP99" s="1">
+        <v>2</v>
+      </c>
+      <c r="AR99" s="1">
+        <v>6</v>
+      </c>
+      <c r="AS99" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="100" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="L100" s="1">
+        <v>6</v>
+      </c>
+      <c r="M100" s="1">
+        <v>2</v>
+      </c>
+      <c r="O100" s="1">
+        <v>2</v>
+      </c>
+      <c r="P100" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>4</v>
+      </c>
+      <c r="R100" s="1">
+        <v>5</v>
+      </c>
+      <c r="S100" s="1">
+        <v>6</v>
+      </c>
+      <c r="T100" s="1">
+        <v>1</v>
+      </c>
+      <c r="W100" s="1">
+        <v>6</v>
+      </c>
+      <c r="X100" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB100" s="1">
+        <f>AB98-AB95</f>
+        <v>4</v>
+      </c>
+      <c r="AC100" s="1">
+        <f t="shared" ref="AC100:AG100" si="8">AC98-AC95</f>
+        <v>4</v>
+      </c>
+      <c r="AD100" s="1">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="AE100" s="1">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="AF100" s="1">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="AG100" s="1">
+        <f t="shared" si="8"/>
+        <v>-2</v>
+      </c>
+      <c r="AO100" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP100" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="O101" s="1">
+        <v>3</v>
+      </c>
+      <c r="P101" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN101" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO101" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="P102" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM102" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN102" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="Q103" s="1">
+        <v>5</v>
+      </c>
+      <c r="R103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AL103" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM103" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="R104" s="1">
+        <v>6</v>
+      </c>
+      <c r="S104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK104" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL104" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM104" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN104" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO104" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP104" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="S105" s="1">
+        <v>1</v>
+      </c>
+      <c r="T105" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="O106" s="1">
+        <v>3</v>
+      </c>
+      <c r="P106" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>5</v>
+      </c>
+      <c r="R106" s="1">
+        <v>6</v>
+      </c>
+      <c r="S106" s="1">
+        <v>1</v>
+      </c>
+      <c r="T106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112" spans="4:45" x14ac:dyDescent="0.25">
+      <c r="V112" s="1">
+        <v>2</v>
+      </c>
+      <c r="W112" s="1">
+        <v>5</v>
+      </c>
+      <c r="X112" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y112" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z112" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC112" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="W113" s="1">
+        <v>1</v>
+      </c>
+      <c r="X113" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC113" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD113" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V114" s="1">
+        <v>1</v>
+      </c>
+      <c r="W114" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC114" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V115" s="1">
+        <v>1</v>
+      </c>
+      <c r="W115" s="1">
+        <v>2</v>
+      </c>
+      <c r="X115" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y115" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z115" s="1">
+        <v>4</v>
+      </c>
+      <c r="AC115" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="X116" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y116" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC116" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD116" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="V117" s="1">
+        <v>1</v>
+      </c>
+      <c r="W117" s="1">
+        <v>2</v>
+      </c>
+      <c r="X117" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y117" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z117" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="118" spans="22:30" x14ac:dyDescent="0.25">
+      <c r="Y118" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z118" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF4DFBF-11E7-47AA-A19C-18DB90F141A9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G32" sqref="G32"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
+++ b/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\zz Non-LeetCode\Random Study Session 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1100F2B8-1920-429D-9467-437AE9F65957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B386E82-91E4-467D-A577-F1CDD5BE3990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,8 @@
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +41,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
   <si>
     <t>Size</t>
   </si>
@@ -89,6 +113,108 @@
   <si>
     <t>fake</t>
   </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>i</t>
+  </si>
+  <si>
+    <t>o</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>tar</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>ao</t>
+  </si>
+  <si>
+    <t>aaa</t>
+  </si>
+  <si>
+    <t>aa</t>
+  </si>
+  <si>
+    <t>ae</t>
+  </si>
+  <si>
+    <t>ai</t>
+  </si>
+  <si>
+    <t>ee</t>
+  </si>
+  <si>
+    <t>aee</t>
+  </si>
+  <si>
+    <t>eee</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>ii</t>
+  </si>
+  <si>
+    <t>au</t>
+  </si>
+  <si>
+    <t>ei</t>
+  </si>
+  <si>
+    <t>eo</t>
+  </si>
+  <si>
+    <t>eu</t>
+  </si>
+  <si>
+    <t>io</t>
+  </si>
+  <si>
+    <t>iu</t>
+  </si>
+  <si>
+    <t>oo</t>
+  </si>
+  <si>
+    <t>ou</t>
+  </si>
+  <si>
+    <t>uu</t>
+  </si>
+  <si>
+    <t>aii</t>
+  </si>
+  <si>
+    <t>eii</t>
+  </si>
+  <si>
+    <t>iii</t>
+  </si>
+  <si>
+    <t>eei</t>
+  </si>
+  <si>
+    <t>aai</t>
+  </si>
+  <si>
+    <t>aei</t>
+  </si>
+  <si>
+    <t>aae</t>
+  </si>
 </sst>
 </file>
 
@@ -110,7 +236,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -153,6 +279,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -166,7 +298,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -198,6 +330,10 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5078,14 +5214,1909 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DF4DFBF-11E7-47AA-A19C-18DB90F141A9}">
-  <dimension ref="A1"/>
+  <dimension ref="G11:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView topLeftCell="A10" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="K27" sqref="H27:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="11" width="4.7109375" style="1"/>
+    <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="4.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>12</v>
+      </c>
+      <c r="I11" s="1">
+        <v>5</v>
+      </c>
+      <c r="J11" s="1">
+        <v>111</v>
+      </c>
+      <c r="K11" s="1">
+        <v>200</v>
+      </c>
+      <c r="L11" s="1">
+        <v>1000</v>
+      </c>
+      <c r="M11" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H18" s="1">
+        <v>10</v>
+      </c>
+      <c r="I18" s="1">
+        <v>80</v>
+      </c>
+      <c r="J18" s="1">
+        <v>30</v>
+      </c>
+      <c r="K18" s="1">
+        <v>90</v>
+      </c>
+      <c r="L18" s="1">
+        <v>40</v>
+      </c>
+      <c r="M18" s="1">
+        <v>50</v>
+      </c>
+      <c r="N18" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="I19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1">
+        <v>50</v>
+      </c>
+      <c r="J21" s="1">
+        <v>30</v>
+      </c>
+      <c r="K21" s="1">
+        <v>90</v>
+      </c>
+      <c r="L21" s="1">
+        <v>40</v>
+      </c>
+      <c r="M21" s="1">
+        <v>80</v>
+      </c>
+      <c r="N21" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="K22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H24" s="1">
+        <v>10</v>
+      </c>
+      <c r="I24" s="1">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1">
+        <v>30</v>
+      </c>
+      <c r="K24" s="1">
+        <v>40</v>
+      </c>
+      <c r="L24" s="1">
+        <v>90</v>
+      </c>
+      <c r="M24" s="1">
+        <v>80</v>
+      </c>
+      <c r="N24" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="K25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H27" s="1">
+        <v>10</v>
+      </c>
+      <c r="I27" s="1">
+        <v>50</v>
+      </c>
+      <c r="J27" s="1">
+        <v>30</v>
+      </c>
+      <c r="K27" s="1">
+        <v>40</v>
+      </c>
+      <c r="L27" s="11">
+        <v>70</v>
+      </c>
+      <c r="M27" s="1">
+        <v>80</v>
+      </c>
+      <c r="N27" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="K28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89B3F3E8-F48B-4064-9B76-3F760F4C7BA4}">
+  <dimension ref="F22:AD33"/>
+  <sheetViews>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="K30" sqref="F30:K30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="22" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>3</v>
+      </c>
+      <c r="M22">
+        <v>4</v>
+      </c>
+      <c r="N22">
+        <v>2</v>
+      </c>
+      <c r="O22">
+        <v>3</v>
+      </c>
+      <c r="P22">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>2</v>
+      </c>
+      <c r="H26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>2</v>
+      </c>
+      <c r="H27">
+        <v>4</v>
+      </c>
+      <c r="J27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>1</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" s="12">
+        <v>3</v>
+      </c>
+      <c r="P29" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q29">
+        <v>4</v>
+      </c>
+      <c r="R29">
+        <v>6</v>
+      </c>
+      <c r="S29">
+        <v>10</v>
+      </c>
+      <c r="W29">
+        <v>2</v>
+      </c>
+      <c r="X29">
+        <v>3</v>
+      </c>
+      <c r="Y29">
+        <v>4</v>
+      </c>
+      <c r="Z29">
+        <v>5</v>
+      </c>
+      <c r="AA29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>2</v>
+      </c>
+      <c r="O30" s="12">
+        <v>3</v>
+      </c>
+      <c r="P30" s="12">
+        <v>4</v>
+      </c>
+      <c r="Q30">
+        <v>4</v>
+      </c>
+      <c r="R30">
+        <v>6</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="W30">
+        <v>2</v>
+      </c>
+      <c r="X30">
+        <v>2</v>
+      </c>
+      <c r="Y30">
+        <v>3</v>
+      </c>
+      <c r="Z30">
+        <v>4</v>
+      </c>
+      <c r="AA30">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="6:27" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>1</v>
+      </c>
+      <c r="N31">
+        <v>2</v>
+      </c>
+      <c r="O31" s="12">
+        <v>2</v>
+      </c>
+      <c r="P31" s="12">
+        <v>3</v>
+      </c>
+      <c r="Q31">
+        <v>4</v>
+      </c>
+      <c r="R31">
+        <v>6</v>
+      </c>
+      <c r="S31">
+        <v>10</v>
+      </c>
+      <c r="W31">
+        <v>2</v>
+      </c>
+      <c r="X31">
+        <v>3</v>
+      </c>
+      <c r="Y31">
+        <v>3</v>
+      </c>
+      <c r="Z31">
+        <v>4</v>
+      </c>
+      <c r="AA31">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33" spans="17:30" x14ac:dyDescent="0.25">
+      <c r="Q33" t="s">
+        <v>20</v>
+      </c>
+      <c r="R33">
+        <v>3</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AD33">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF082638-1CAB-438C-807C-7C5CDDCFB1E8}">
+  <dimension ref="G12:AX142"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="O118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="AE142" sqref="AE142"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="19" width="4.7109375" style="1"/>
+    <col min="20" max="20" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="4.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="12" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H12" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3</v>
+      </c>
+      <c r="K12" s="1">
+        <v>-4</v>
+      </c>
+      <c r="L12" s="1">
+        <v>5</v>
+      </c>
+      <c r="M12" s="1">
+        <v>6</v>
+      </c>
+      <c r="N12" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="8:14" x14ac:dyDescent="0.25">
+      <c r="H13" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3</v>
+      </c>
+      <c r="K13" s="1">
+        <v>-3</v>
+      </c>
+      <c r="L13" s="1">
+        <v>8</v>
+      </c>
+      <c r="M13" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="AK20" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>4</v>
+      </c>
+      <c r="AO20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="R21" s="1">
+        <v>-2</v>
+      </c>
+      <c r="S21" s="1">
+        <v>1</v>
+      </c>
+      <c r="T21" s="1">
+        <v>3</v>
+      </c>
+      <c r="U21" s="1">
+        <v>-4</v>
+      </c>
+      <c r="V21" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ21" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="22" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ22" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="Q23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>2</v>
+      </c>
+      <c r="AJ23" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="Q24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>1</v>
+      </c>
+      <c r="AJ24" s="1">
+        <v>-4</v>
+      </c>
+    </row>
+    <row r="25" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="Q25" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ25" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="Q26" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="Q27" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="AG29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ29" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AQ29" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU29" s="1">
+        <v>2</v>
+      </c>
+      <c r="AV29" s="1">
+        <v>3</v>
+      </c>
+      <c r="AW29" s="1">
+        <v>4</v>
+      </c>
+      <c r="AX29" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="W30" s="1">
+        <v>2</v>
+      </c>
+      <c r="X30" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z30" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT30" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="V31" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN31" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT31" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU31" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="17:50" x14ac:dyDescent="0.25">
+      <c r="V32" s="1">
+        <v>7</v>
+      </c>
+      <c r="AF32" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT32" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33" spans="22:47" x14ac:dyDescent="0.25">
+      <c r="V33" s="1">
+        <v>4</v>
+      </c>
+      <c r="AF33" s="1">
+        <v>8</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN33" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT33" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU33" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="22:47" x14ac:dyDescent="0.25">
+      <c r="V34" s="1">
+        <v>6</v>
+      </c>
+      <c r="AF34" s="1">
+        <v>7</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>7</v>
+      </c>
+      <c r="AT34" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="22:47" x14ac:dyDescent="0.25">
+      <c r="V35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF35" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>6</v>
+      </c>
+      <c r="AN35" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT35" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="22:47" x14ac:dyDescent="0.25">
+      <c r="AF36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT36" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37" spans="22:47" x14ac:dyDescent="0.25">
+      <c r="AT37" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="22:47" x14ac:dyDescent="0.25">
+      <c r="AT38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="I51" s="1">
+        <v>-2</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
+        <v>3</v>
+      </c>
+      <c r="L51" s="1">
+        <v>-4</v>
+      </c>
+      <c r="M51" s="1">
+        <v>5</v>
+      </c>
+      <c r="N51" s="1">
+        <v>6</v>
+      </c>
+      <c r="V51" s="1">
+        <v>-2</v>
+      </c>
+      <c r="W51" s="1">
+        <v>3</v>
+      </c>
+      <c r="X51" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD51" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF51" s="1">
+        <v>3</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>6</v>
+      </c>
+      <c r="AM51" s="1" cm="1">
+        <f t="array" ref="AM51:AU51">TRANSPOSE(AL52:AL60)</f>
+        <v>1</v>
+      </c>
+      <c r="AN51" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO51" s="1">
+        <v>6</v>
+      </c>
+      <c r="AP51" s="1">
+        <v>5</v>
+      </c>
+      <c r="AQ51" s="1">
+        <v>6</v>
+      </c>
+      <c r="AR51" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS51" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT51" s="1">
+        <v>5</v>
+      </c>
+      <c r="AU51" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="H52" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K52" s="1">
+        <v>1</v>
+      </c>
+      <c r="L52" s="1">
+        <v>-6</v>
+      </c>
+      <c r="M52" s="1">
+        <v>3</v>
+      </c>
+      <c r="N52" s="1">
+        <v>4</v>
+      </c>
+      <c r="R52" s="1">
+        <v>-2</v>
+      </c>
+      <c r="S52" s="1">
+        <v>3</v>
+      </c>
+      <c r="V52" s="1">
+        <v>-2</v>
+      </c>
+      <c r="W52" s="1">
+        <v>3</v>
+      </c>
+      <c r="X52" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC52" s="1">
+        <v>-2</v>
+      </c>
+      <c r="AL52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN52" s="1">
+        <v>5</v>
+      </c>
+      <c r="AO52" s="1">
+        <v>7</v>
+      </c>
+      <c r="AP52" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ52" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="H53" s="1">
+        <v>1</v>
+      </c>
+      <c r="R53" s="1">
+        <v>-2</v>
+      </c>
+      <c r="S53" s="1">
+        <v>-4</v>
+      </c>
+      <c r="V53" s="1">
+        <v>-2</v>
+      </c>
+      <c r="W53" s="1">
+        <v>-4</v>
+      </c>
+      <c r="X53" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC53" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL53" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="H54" s="1">
+        <v>3</v>
+      </c>
+      <c r="R54" s="1">
+        <v>-2</v>
+      </c>
+      <c r="S54" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC54" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL54" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="H55" s="1">
+        <v>-4</v>
+      </c>
+      <c r="R55" s="1">
+        <v>-2</v>
+      </c>
+      <c r="S55" s="1">
+        <v>6</v>
+      </c>
+      <c r="AC55" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AL55" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="H56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC56" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL56" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="57" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="H57" s="1">
+        <v>6</v>
+      </c>
+      <c r="R57" s="1">
+        <v>1</v>
+      </c>
+      <c r="S57" s="1">
+        <v>-4</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>6</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AL57" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="AL58" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="59" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="AL59" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="8:47" x14ac:dyDescent="0.25">
+      <c r="AL60" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="H69" s="1">
+        <v>5</v>
+      </c>
+      <c r="I69" s="1">
+        <v>4</v>
+      </c>
+      <c r="J69" s="1">
+        <v>-1</v>
+      </c>
+      <c r="K69" s="1">
+        <v>7</v>
+      </c>
+      <c r="L69" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="H74" s="1">
+        <v>0</v>
+      </c>
+      <c r="I74" s="1">
+        <v>1</v>
+      </c>
+      <c r="J74" s="1">
+        <v>2</v>
+      </c>
+      <c r="K74" s="1">
+        <v>3</v>
+      </c>
+      <c r="L74" s="1">
+        <v>4</v>
+      </c>
+      <c r="M74" s="1">
+        <v>5</v>
+      </c>
+      <c r="N74" s="1">
+        <v>6</v>
+      </c>
+      <c r="O74" s="1">
+        <v>7</v>
+      </c>
+      <c r="P74" s="1">
+        <v>8</v>
+      </c>
+      <c r="T74" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="U74" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="75" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="H75" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I75" s="1">
+        <v>1</v>
+      </c>
+      <c r="J75" s="1">
+        <v>-3</v>
+      </c>
+      <c r="K75" s="1">
+        <v>4</v>
+      </c>
+      <c r="L75" s="1">
+        <v>-1</v>
+      </c>
+      <c r="M75" s="1">
+        <v>2</v>
+      </c>
+      <c r="N75" s="1">
+        <v>1</v>
+      </c>
+      <c r="O75" s="1">
+        <v>-5</v>
+      </c>
+      <c r="P75" s="1">
+        <v>4</v>
+      </c>
+      <c r="T75" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="U75" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="76" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H76" s="1">
+        <v>-2</v>
+      </c>
+      <c r="I76" s="1">
+        <v>1</v>
+      </c>
+      <c r="J76" s="1">
+        <v>-2</v>
+      </c>
+      <c r="K76" s="1">
+        <v>4</v>
+      </c>
+      <c r="L76" s="1">
+        <v>3</v>
+      </c>
+      <c r="M76" s="1">
+        <v>5</v>
+      </c>
+      <c r="N76" s="1">
+        <v>6</v>
+      </c>
+      <c r="O76" s="1">
+        <v>1</v>
+      </c>
+      <c r="P76" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="7:21" x14ac:dyDescent="0.25">
+      <c r="G77" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" s="1">
+        <v>0</v>
+      </c>
+      <c r="I77" s="1">
+        <v>1</v>
+      </c>
+      <c r="J77" s="1">
+        <v>1</v>
+      </c>
+      <c r="K77" s="1">
+        <v>3</v>
+      </c>
+      <c r="L77" s="1">
+        <v>3</v>
+      </c>
+      <c r="M77" s="1">
+        <v>3</v>
+      </c>
+      <c r="N77" s="1">
+        <v>3</v>
+      </c>
+      <c r="O77" s="1">
+        <v>3</v>
+      </c>
+      <c r="P77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G84" s="1">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1">
+        <v>2</v>
+      </c>
+      <c r="I84" s="1">
+        <v>3</v>
+      </c>
+      <c r="J84" s="1">
+        <v>4</v>
+      </c>
+      <c r="K84" s="1">
+        <v>5</v>
+      </c>
+      <c r="L84" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="85" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="G85" s="1">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1">
+        <v>2</v>
+      </c>
+      <c r="I85" s="1">
+        <v>3</v>
+      </c>
+      <c r="J85" s="1">
+        <v>5</v>
+      </c>
+      <c r="K85" s="1">
+        <v>8</v>
+      </c>
+      <c r="L85" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="91" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="P91" s="1">
+        <v>1</v>
+      </c>
+      <c r="X91" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="O92" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>1</v>
+      </c>
+      <c r="X92" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="N93" s="1">
+        <v>1</v>
+      </c>
+      <c r="P93" s="1">
+        <v>2</v>
+      </c>
+      <c r="R93" s="1">
+        <v>1</v>
+      </c>
+      <c r="X93" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="M94" s="1">
+        <v>1</v>
+      </c>
+      <c r="O94" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>3</v>
+      </c>
+      <c r="S94" s="1">
+        <v>1</v>
+      </c>
+      <c r="X94" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z94" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="95" spans="7:31" x14ac:dyDescent="0.25">
+      <c r="L95" s="1">
+        <v>1</v>
+      </c>
+      <c r="N95" s="1">
+        <v>4</v>
+      </c>
+      <c r="P95" s="1">
+        <v>6</v>
+      </c>
+      <c r="R95" s="1">
+        <v>4</v>
+      </c>
+      <c r="T95" s="1">
+        <v>1</v>
+      </c>
+      <c r="X95" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>4</v>
+      </c>
+      <c r="Z95" s="1">
+        <v>6</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>4</v>
+      </c>
+      <c r="AB95" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S100" s="4">
+        <v>0</v>
+      </c>
+      <c r="T100" s="1">
+        <v>0</v>
+      </c>
+      <c r="U100" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S101" s="4">
+        <v>1</v>
+      </c>
+      <c r="T101" s="1">
+        <v>1</v>
+      </c>
+      <c r="U101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S102" s="11">
+        <v>2</v>
+      </c>
+      <c r="T102" s="1">
+        <v>10</v>
+      </c>
+      <c r="U102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S103" s="11">
+        <v>3</v>
+      </c>
+      <c r="T103" s="1">
+        <v>11</v>
+      </c>
+      <c r="U103" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S104" s="1">
+        <v>4</v>
+      </c>
+      <c r="T104" s="1">
+        <v>100</v>
+      </c>
+      <c r="U104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S105" s="1">
+        <v>5</v>
+      </c>
+      <c r="T105" s="1">
+        <v>101</v>
+      </c>
+      <c r="U105" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S106" s="1">
+        <v>6</v>
+      </c>
+      <c r="T106" s="1">
+        <v>110</v>
+      </c>
+      <c r="U106" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S107" s="1">
+        <v>7</v>
+      </c>
+      <c r="T107" s="1">
+        <v>111</v>
+      </c>
+      <c r="U107" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S108" s="11">
+        <v>8</v>
+      </c>
+      <c r="T108" s="1">
+        <v>1000</v>
+      </c>
+      <c r="U108" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S109" s="11">
+        <v>9</v>
+      </c>
+      <c r="T109" s="1">
+        <v>1001</v>
+      </c>
+      <c r="U109" s="1">
+        <v>2</v>
+      </c>
+      <c r="AI109" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="110" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S110" s="11">
+        <v>10</v>
+      </c>
+      <c r="T110" s="1">
+        <v>1010</v>
+      </c>
+      <c r="U110" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S111" s="11">
+        <v>11</v>
+      </c>
+      <c r="T111" s="1">
+        <v>1011</v>
+      </c>
+      <c r="U111" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN111" s="1" cm="1">
+        <f t="array" ref="AN111:AT114">TRANSPOSE(AE122:AH128)</f>
+        <v>0</v>
+      </c>
+      <c r="AO111" s="1" t="str">
+        <v>a</v>
+      </c>
+      <c r="AP111" s="1" t="str">
+        <v>e</v>
+      </c>
+      <c r="AQ111" s="1" t="str">
+        <v>i</v>
+      </c>
+      <c r="AR111" s="1" t="str">
+        <v>o</v>
+      </c>
+      <c r="AS111" s="1" t="str">
+        <v>u</v>
+      </c>
+      <c r="AT111" s="1" t="str">
+        <v>-</v>
+      </c>
+    </row>
+    <row r="112" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S112" s="11">
+        <v>12</v>
+      </c>
+      <c r="T112" s="1">
+        <v>1100</v>
+      </c>
+      <c r="U112" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN112" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO112" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP112" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ112" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR112" s="1">
+        <v>1</v>
+      </c>
+      <c r="AS112" s="1">
+        <v>1</v>
+      </c>
+      <c r="AT112" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S113" s="11">
+        <v>13</v>
+      </c>
+      <c r="T113" s="1">
+        <v>1101</v>
+      </c>
+      <c r="U113" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN113" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO113" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP113" s="1">
+        <v>2</v>
+      </c>
+      <c r="AQ113" s="1">
+        <v>3</v>
+      </c>
+      <c r="AR113" s="1">
+        <v>4</v>
+      </c>
+      <c r="AS113" s="1">
+        <v>5</v>
+      </c>
+      <c r="AT113" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="114" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S114" s="11">
+        <v>14</v>
+      </c>
+      <c r="T114" s="1">
+        <v>1110</v>
+      </c>
+      <c r="U114" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN114" s="1">
+        <v>3</v>
+      </c>
+      <c r="AO114" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP114" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ114" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR114" s="1">
+        <v>5</v>
+      </c>
+      <c r="AS114" s="1">
+        <v>6</v>
+      </c>
+      <c r="AT114" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="115" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S115" s="11">
+        <v>15</v>
+      </c>
+      <c r="T115" s="1">
+        <v>1111</v>
+      </c>
+      <c r="U115" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S116" s="1">
+        <v>16</v>
+      </c>
+      <c r="T116" s="1">
+        <v>10000</v>
+      </c>
+    </row>
+    <row r="117" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S117" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="118" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S118" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="119" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S119" s="1">
+        <v>31</v>
+      </c>
+      <c r="T119" s="1">
+        <v>11111</v>
+      </c>
+    </row>
+    <row r="120" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S120" s="11">
+        <v>32</v>
+      </c>
+      <c r="AL120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM120" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S121" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AL121" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM121" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="122" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S122" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="AF122" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG122" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH122" s="1">
+        <v>3</v>
+      </c>
+      <c r="AL122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM122" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="123" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="S123" s="11">
+        <v>64</v>
+      </c>
+      <c r="Y123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z123" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA123" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB123" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC123" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AF123" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG123" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH123" s="1">
+        <f>1*AG123</f>
+        <v>1</v>
+      </c>
+      <c r="AL123" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM123" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="124" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="AE124" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF124" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG124" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH124" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="AE125" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF125" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG125" s="1">
+        <v>3</v>
+      </c>
+      <c r="AH125" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="AE126" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF126" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG126" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH126" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="AE127" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AF127" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG127" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH127" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="128" spans="19:46" x14ac:dyDescent="0.25">
+      <c r="AE128" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF128" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG128" s="1">
+        <f>SUM(AG123:AG127)</f>
+        <v>15</v>
+      </c>
+      <c r="AH128" s="1">
+        <f>SUM(AH122:AH127)</f>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="131" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="V131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W131" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB131" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF131" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AI131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ131" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AM131" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN131" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="132" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="W132" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB132" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AF132" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AJ132" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="133" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="W133" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB133" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AF133" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="134" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="W134" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AB134" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="135" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="W135" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="137" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="AN137" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AO137" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP137" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="AQ137" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AR137" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="138" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="V138" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="W138" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="X138" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y138" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AA138" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AB138" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC138" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AD138" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AE138" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AG138" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AJ138" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM138" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN138" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO138" s="1">
+        <v>1</v>
+      </c>
+      <c r="AP138" s="1">
+        <v>1</v>
+      </c>
+      <c r="AQ138" s="1">
+        <v>1</v>
+      </c>
+      <c r="AR138" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="139" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="V139" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="W139" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="X139" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA139" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB139" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AD139" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AG139" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM139" s="1">
+        <v>2</v>
+      </c>
+      <c r="AN139" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO139" s="1">
+        <v>2</v>
+      </c>
+      <c r="AP139" s="1">
+        <v>3</v>
+      </c>
+      <c r="AQ139" s="1">
+        <v>4</v>
+      </c>
+      <c r="AR139" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="140" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="V140" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="W140" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AA140" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD140" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AN140" s="1">
+        <v>1</v>
+      </c>
+      <c r="AO140" s="1">
+        <v>3</v>
+      </c>
+      <c r="AP140" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="V141" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA141" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="142" spans="22:44" x14ac:dyDescent="0.25">
+      <c r="V142" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
+++ b/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\zz Non-LeetCode\Random Study Session 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B386E82-91E4-467D-A577-F1CDD5BE3990}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FF3C37-E628-47DB-BA73-38504045A1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -64,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="69">
   <si>
     <t>Size</t>
   </si>
@@ -215,12 +216,69 @@
   <si>
     <t>aae</t>
   </si>
+  <si>
+    <t>abcde</t>
+  </si>
+  <si>
+    <t>Abcde</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>AbcDE</t>
+  </si>
+  <si>
+    <t>AFDE</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>beFgH</t>
+  </si>
+  <si>
+    <t>EFG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e </t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>H</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>G</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>tot</t>
+  </si>
+  <si>
+    <t>frced</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -235,8 +293,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFD4E4F9"/>
+      <name val="Var(--font-family-input)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.14999847407452621"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -285,6 +356,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -298,7 +381,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -334,6 +417,21 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -620,7 +718,7 @@
       <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="4" width="4.7109375" style="1"/>
     <col min="5" max="5" width="4.7109375" style="1" customWidth="1"/>
@@ -629,7 +727,7 @@
     <col min="18" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:28">
       <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
@@ -643,7 +741,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="4" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:28">
       <c r="B4" s="1">
         <v>0</v>
       </c>
@@ -664,7 +762,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:28">
       <c r="B5" s="1">
         <v>1</v>
       </c>
@@ -709,7 +807,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:28">
       <c r="B6" s="1">
         <v>2</v>
       </c>
@@ -754,7 +852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:28">
       <c r="B7" s="1">
         <v>3</v>
       </c>
@@ -812,7 +910,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:28">
       <c r="I8" s="1" t="s">
         <v>4</v>
       </c>
@@ -844,7 +942,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:28">
       <c r="D12" s="1">
         <v>1</v>
       </c>
@@ -921,7 +1019,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:28">
       <c r="C13" s="1" t="s">
         <v>6</v>
       </c>
@@ -971,7 +1069,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="14" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:28">
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
@@ -1021,7 +1119,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:28">
       <c r="C15" s="1">
         <v>0</v>
       </c>
@@ -1071,7 +1169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:28" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:28">
       <c r="C16" s="1">
         <v>1</v>
       </c>
@@ -1121,7 +1219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:29">
       <c r="C17" s="1">
         <v>2</v>
       </c>
@@ -1171,7 +1269,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:29">
       <c r="C18" s="1">
         <v>3</v>
       </c>
@@ -1221,12 +1319,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:29">
       <c r="D22" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:29">
       <c r="D23" s="1">
         <v>7</v>
       </c>
@@ -1240,27 +1338,27 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:29">
       <c r="C24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:29">
       <c r="C25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:29">
       <c r="C26" s="1">
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:29">
       <c r="C27" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:29">
       <c r="E31" s="1">
         <v>1</v>
       </c>
@@ -1337,7 +1435,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:29">
       <c r="D32" s="1" t="s">
         <v>6</v>
       </c>
@@ -1414,7 +1512,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="4:29">
       <c r="D33" s="1" t="s">
         <v>7</v>
       </c>
@@ -1476,17 +1574,17 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="4:29">
       <c r="D34" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="4:29">
       <c r="D35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="4:29">
       <c r="D36" s="1">
         <v>2</v>
       </c>
@@ -1536,7 +1634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="4:29">
       <c r="D37" s="1">
         <v>3</v>
       </c>
@@ -1562,7 +1660,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="4:29">
       <c r="D39" s="1" t="s">
         <v>2</v>
       </c>
@@ -1576,7 +1674,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="40" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="4:29">
       <c r="D40" s="1">
         <v>2</v>
       </c>
@@ -1591,7 +1689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="4:29">
       <c r="D41" s="1">
         <v>1</v>
       </c>
@@ -1606,7 +1704,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="4:29">
       <c r="D42" s="1">
         <v>0</v>
       </c>
@@ -1621,7 +1719,7 @@
         <v>8.6363636363636367</v>
       </c>
     </row>
-    <row r="43" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="4:29">
       <c r="D43" s="1">
         <v>3</v>
       </c>
@@ -1636,13 +1734,13 @@
         <v>8.5714285714285712</v>
       </c>
     </row>
-    <row r="48" spans="4:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="4:29">
       <c r="Q48" s="2"/>
     </row>
-    <row r="49" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="49" spans="17:17">
       <c r="Q49" s="2"/>
     </row>
-    <row r="51" spans="17:17" x14ac:dyDescent="0.25">
+    <row r="51" spans="17:17">
       <c r="Q51" s="2"/>
     </row>
   </sheetData>
@@ -1658,12 +1756,12 @@
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18">
       <c r="A7" s="1" t="s">
         <v>7</v>
       </c>
@@ -1674,7 +1772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>1</v>
       </c>
@@ -1682,7 +1780,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>2</v>
       </c>
@@ -1690,7 +1788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>4</v>
       </c>
@@ -1698,7 +1796,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>5</v>
       </c>
@@ -1706,7 +1804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:18">
       <c r="D13" s="1">
         <v>1</v>
       </c>
@@ -1753,7 +1851,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18">
       <c r="C14" s="1">
         <v>1</v>
       </c>
@@ -1767,7 +1865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="C15" s="1">
         <v>2</v>
       </c>
@@ -1781,7 +1879,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:18">
       <c r="C16" s="1">
         <v>4</v>
       </c>
@@ -1792,7 +1890,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:5">
       <c r="C17" s="1">
         <v>5</v>
       </c>
@@ -1803,7 +1901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:5">
       <c r="C18" s="1" t="s">
         <v>7</v>
       </c>
@@ -1814,7 +1912,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:5">
       <c r="C19" s="1" t="s">
         <v>6</v>
       </c>
@@ -1839,12 +1937,12 @@
       <selection activeCell="S41" sqref="S41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="5:24">
       <c r="E8" s="3">
         <v>0</v>
       </c>
@@ -1867,7 +1965,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="5:24">
       <c r="R9" s="1">
         <v>0</v>
       </c>
@@ -1890,7 +1988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="5:24">
       <c r="E10" s="1">
         <v>0</v>
       </c>
@@ -1934,7 +2032,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="5:24">
       <c r="R11" s="1" t="s">
         <v>8</v>
       </c>
@@ -1957,7 +2055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="5:24">
       <c r="E12" s="1">
         <v>0</v>
       </c>
@@ -1980,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="5:24">
       <c r="E14" s="1">
         <v>0</v>
       </c>
@@ -2024,7 +2122,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="5:24">
       <c r="R15" s="1" t="s">
         <v>8</v>
       </c>
@@ -2047,7 +2145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="5:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="5:24">
       <c r="E16" s="1">
         <v>0</v>
       </c>
@@ -2070,7 +2168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:11">
       <c r="E18" s="1">
         <v>0</v>
       </c>
@@ -2093,7 +2191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:11">
       <c r="I27" s="1">
         <v>8800</v>
       </c>
@@ -2105,13 +2203,13 @@
         <v>800</v>
       </c>
     </row>
-    <row r="28" spans="5:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:11">
       <c r="K28" s="1">
         <f>K27*4.8</f>
         <v>3840</v>
       </c>
     </row>
-    <row r="33" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:31">
       <c r="E33" s="1">
         <v>0</v>
       </c>
@@ -2173,7 +2271,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="34" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:31">
       <c r="E34" s="1" t="s">
         <v>9</v>
       </c>
@@ -2235,7 +2333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="41" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:31">
       <c r="S41" s="3">
         <v>1</v>
       </c>
@@ -2264,7 +2362,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:31">
       <c r="S42" s="3">
         <v>0</v>
       </c>
@@ -2287,7 +2385,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:31">
       <c r="S43" s="3">
         <v>1</v>
       </c>
@@ -2316,7 +2414,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:31">
       <c r="S44" s="3">
         <v>0</v>
       </c>
@@ -2336,7 +2434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:31">
       <c r="S45" s="1">
         <v>0</v>
       </c>
@@ -2356,7 +2454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:31" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:31">
       <c r="S46" s="1">
         <v>0</v>
       </c>
@@ -2390,12 +2488,12 @@
       <selection activeCell="AB12" sqref="AB12:AC12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="8" spans="7:35" x14ac:dyDescent="0.25">
+    <row r="8" spans="7:35">
       <c r="G8" s="1">
         <v>0</v>
       </c>
@@ -2439,7 +2537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="7:35" x14ac:dyDescent="0.25">
+    <row r="9" spans="7:35">
       <c r="G9" s="3">
         <v>7</v>
       </c>
@@ -2513,7 +2611,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="7:35" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:35">
       <c r="G10" s="3">
         <v>2</v>
       </c>
@@ -2557,7 +2655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="7:35" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:35">
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -2601,7 +2699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="7:35" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:35">
       <c r="G12" s="1">
         <v>1</v>
       </c>
@@ -2645,7 +2743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="7:35" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:35">
       <c r="G13" s="1">
         <v>1</v>
       </c>
@@ -2689,7 +2787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="7:35" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:35">
       <c r="G14" s="1">
         <v>1</v>
       </c>
@@ -2733,7 +2831,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="17" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="17" spans="5:40">
       <c r="G17" s="3">
         <v>4</v>
       </c>
@@ -2771,7 +2869,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="18" spans="5:40">
       <c r="G18" s="1">
         <v>1</v>
       </c>
@@ -2809,7 +2907,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="19" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="19" spans="5:40">
       <c r="G19" s="1">
         <v>1</v>
       </c>
@@ -2847,7 +2945,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="20" spans="5:40">
       <c r="G20" s="1">
         <v>1</v>
       </c>
@@ -2885,7 +2983,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="25" spans="5:40">
       <c r="G25" s="3">
         <v>0</v>
       </c>
@@ -2908,7 +3006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="26" spans="5:40">
       <c r="E26" s="1" t="s">
         <v>12</v>
       </c>
@@ -2958,7 +3056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="27" spans="5:40">
       <c r="E27" s="1" t="s">
         <v>13</v>
       </c>
@@ -3023,7 +3121,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="28" spans="5:40">
       <c r="AJ28" s="1">
         <v>1</v>
       </c>
@@ -3040,7 +3138,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="29" spans="5:40">
       <c r="AC29" s="1">
         <v>0</v>
       </c>
@@ -3057,7 +3155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="30" spans="5:40">
       <c r="AC30" s="1">
         <v>2</v>
       </c>
@@ -3089,7 +3187,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="5:40" x14ac:dyDescent="0.25">
+    <row r="32" spans="5:40">
       <c r="AC32" s="1">
         <v>1</v>
       </c>
@@ -3119,14 +3217,14 @@
       <selection activeCell="V121" sqref="V121"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="34" width="4.7109375" style="1"/>
     <col min="35" max="35" width="4.7109375" style="1" customWidth="1"/>
     <col min="36" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="2" spans="7:54">
       <c r="AV2" s="5">
         <v>7</v>
       </c>
@@ -3149,7 +3247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="3" spans="7:54">
       <c r="AV3" s="1">
         <v>1</v>
       </c>
@@ -3157,7 +3255,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="4" spans="7:54">
       <c r="AX4" s="1">
         <v>5</v>
       </c>
@@ -3165,7 +3263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="5" spans="7:54">
       <c r="AW5" s="1">
         <v>2</v>
       </c>
@@ -3173,7 +3271,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="6" spans="7:54">
       <c r="Z6" s="1">
         <v>7</v>
       </c>
@@ -3202,7 +3300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="7" spans="7:54">
       <c r="AX7" s="1">
         <v>3</v>
       </c>
@@ -3210,7 +3308,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="10" spans="7:54">
       <c r="G10" s="5">
         <v>1</v>
       </c>
@@ -3275,7 +3373,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:54">
       <c r="K11" s="1">
         <v>7</v>
       </c>
@@ -3298,7 +3396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="12" spans="7:54">
       <c r="G12" s="1">
         <v>7</v>
       </c>
@@ -3321,7 +3419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="13" spans="7:54">
       <c r="G13" s="5">
         <v>7</v>
       </c>
@@ -3374,7 +3472,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="14" spans="7:54">
       <c r="H14" s="1">
         <v>4</v>
       </c>
@@ -3397,7 +3495,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="15" spans="7:54">
       <c r="I15" s="1">
         <v>1</v>
       </c>
@@ -3411,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="7:54" x14ac:dyDescent="0.25">
+    <row r="16" spans="7:54">
       <c r="J16" s="1">
         <v>6</v>
       </c>
@@ -3442,7 +3540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="17" spans="7:44">
       <c r="G17" s="5">
         <v>7</v>
       </c>
@@ -3489,7 +3587,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="18" spans="7:44">
       <c r="G18" s="1">
         <v>1</v>
       </c>
@@ -3500,7 +3598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="19" spans="7:44">
       <c r="H19" s="1">
         <v>2</v>
       </c>
@@ -3511,7 +3609,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="20" spans="7:44">
       <c r="I20" s="1">
         <v>3</v>
       </c>
@@ -3522,7 +3620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="21" spans="7:44">
       <c r="J21" s="1">
         <v>4</v>
       </c>
@@ -3536,7 +3634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="22" spans="7:44">
       <c r="K22" s="1">
         <v>5</v>
       </c>
@@ -3596,7 +3694,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="23" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="23" spans="7:44">
       <c r="Z23" s="6">
         <v>0</v>
       </c>
@@ -3643,7 +3741,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="24" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="24" spans="7:44">
       <c r="Y24" s="1" t="s">
         <v>15</v>
       </c>
@@ -3697,7 +3795,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="25" spans="7:44">
       <c r="Z25" s="10">
         <v>7</v>
       </c>
@@ -3720,7 +3818,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="26" spans="7:44">
       <c r="AI26" s="7">
         <f>AI23-AI24</f>
         <v>-2</v>
@@ -3750,97 +3848,97 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="28" spans="7:44">
       <c r="AI28" s="5">
-        <f>HLOOKUP(AI24+AI26,$Z$24:$AF$25,2,FALSE)</f>
+        <f t="shared" ref="AI28:AO28" si="3">HLOOKUP(AI24+AI26,$Z$24:$AF$25,2,FALSE)</f>
         <v>7</v>
       </c>
       <c r="AJ28" s="5">
-        <f>HLOOKUP(AJ24+AJ26,$Z$24:$AF$25,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="AK28" s="5">
-        <f>HLOOKUP(AK24+AK26,$Z$24:$AF$25,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="AL28" s="5">
-        <f>HLOOKUP(AL24+AL26,$Z$24:$AF$25,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="AM28" s="5">
-        <f>HLOOKUP(AM24+AM26,$Z$24:$AF$25,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="AN28" s="5">
-        <f>HLOOKUP(AN24+AN26,$Z$24:$AF$25,2,FALSE)</f>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="AO28" s="5">
-        <f>HLOOKUP(AO24+AO26,$Z$24:$AF$25,2,FALSE)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="29" spans="7:44" x14ac:dyDescent="0.25">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="7:44">
       <c r="AI29" s="8">
         <f>HLOOKUP(AI28,$AI$23:$AO$26,4,FALSE)</f>
         <v>6</v>
       </c>
       <c r="AJ29" s="8">
-        <f t="shared" ref="AJ29:AO29" si="3">HLOOKUP(AJ28,$AI$23:$AO$26,4,FALSE)</f>
+        <f t="shared" ref="AJ29:AO29" si="4">HLOOKUP(AJ28,$AI$23:$AO$26,4,FALSE)</f>
         <v>2</v>
       </c>
       <c r="AK29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="AL29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="AM29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
       <c r="AN29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="AO29" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>-2</v>
       </c>
     </row>
-    <row r="31" spans="7:44" x14ac:dyDescent="0.25">
+    <row r="31" spans="7:44">
       <c r="AI31" s="9">
-        <f>AI29+AI26</f>
+        <f t="shared" ref="AI31:AO31" si="5">AI29+AI26</f>
         <v>4</v>
       </c>
       <c r="AJ31" s="9">
-        <f>AJ29+AJ26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AK31" s="9">
-        <f>AK29+AK26</f>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="AL31" s="9">
-        <f>AL29+AL26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AM31" s="9">
-        <f>AM29+AM26</f>
+        <f t="shared" si="5"/>
         <v>-4</v>
       </c>
       <c r="AN31" s="9">
-        <f>AN29+AN26</f>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="AO31" s="9">
-        <f>AO29+AO26</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="5:41" x14ac:dyDescent="0.25">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="5:41">
       <c r="F34" s="6">
         <v>0</v>
       </c>
@@ -3884,7 +3982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:41">
       <c r="E35" s="1" t="s">
         <v>15</v>
       </c>
@@ -3934,7 +4032,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="36" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:41">
       <c r="F36" s="5">
         <v>4</v>
       </c>
@@ -4020,7 +4118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:41">
       <c r="Z37" s="6">
         <v>0</v>
       </c>
@@ -4067,33 +4165,33 @@
         <v>7</v>
       </c>
     </row>
-    <row r="38" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:41">
       <c r="O38" s="1">
         <f>O35-O36</f>
         <v>-3</v>
       </c>
       <c r="P38" s="1">
-        <f t="shared" ref="P38:U38" si="4">P35-P36</f>
+        <f t="shared" ref="P38:U38" si="6">P35-P36</f>
         <v>0</v>
       </c>
       <c r="Q38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="R38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3</v>
       </c>
       <c r="S38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>-2</v>
       </c>
       <c r="T38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>0</v>
       </c>
       <c r="U38" s="1">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>2</v>
       </c>
       <c r="Y38" s="1" t="s">
@@ -4142,7 +4240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="39" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:41">
       <c r="Z39" s="10">
         <v>1</v>
       </c>
@@ -4165,7 +4263,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="40" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:41">
       <c r="AI40" s="7">
         <v>0</v>
       </c>
@@ -4188,7 +4286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:41">
       <c r="F42" s="6">
         <v>0</v>
       </c>
@@ -4253,7 +4351,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:41">
       <c r="E43" s="1" t="s">
         <v>15</v>
       </c>
@@ -4324,7 +4422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:41">
       <c r="F44" s="5">
         <v>5</v>
       </c>
@@ -4368,7 +4466,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:41">
       <c r="AI45" s="9">
         <v>0</v>
       </c>
@@ -4391,37 +4489,37 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="5:41" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:41">
       <c r="O46" s="1">
         <f>O43-O44</f>
         <v>-4</v>
       </c>
       <c r="P46" s="1">
-        <f t="shared" ref="P46:U46" si="5">P43-P44</f>
+        <f t="shared" ref="P46:U46" si="7">P43-P44</f>
         <v>0</v>
       </c>
       <c r="Q46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>-3</v>
       </c>
       <c r="S46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>4</v>
       </c>
       <c r="T46" s="1">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U46" s="1">
-        <f t="shared" si="5"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="16:24" x14ac:dyDescent="0.25">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="16:24">
       <c r="P69" s="1">
         <v>2</v>
       </c>
@@ -4441,7 +4539,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="70" spans="16:24">
       <c r="P70" s="1">
         <v>1</v>
       </c>
@@ -4464,7 +4562,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="71" spans="16:24">
       <c r="P71" s="1">
         <v>1</v>
       </c>
@@ -4487,7 +4585,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="72" spans="16:24">
       <c r="P72" s="1">
         <v>1</v>
       </c>
@@ -4510,12 +4608,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="73" spans="16:24">
       <c r="V73" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="79" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="79" spans="16:24">
       <c r="P79" s="1">
         <v>2</v>
       </c>
@@ -4535,7 +4633,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="16:24" x14ac:dyDescent="0.25">
+    <row r="80" spans="16:24">
       <c r="P80" s="1">
         <v>1</v>
       </c>
@@ -4558,7 +4656,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="81" spans="4:45">
       <c r="P81" s="1">
         <v>1</v>
       </c>
@@ -4578,7 +4676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="82" spans="4:45">
       <c r="P82" s="1">
         <v>1</v>
       </c>
@@ -4601,7 +4699,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="83" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="83" spans="4:45">
       <c r="P83" s="1">
         <v>1</v>
       </c>
@@ -4624,29 +4722,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="94" spans="4:45">
       <c r="AB94" s="1">
         <f>AB96</f>
         <v>3</v>
       </c>
       <c r="AC94" s="1">
-        <f t="shared" ref="AC94:AG94" si="6">AC96</f>
+        <f t="shared" ref="AC94:AG94" si="8">AC96</f>
         <v>4</v>
       </c>
       <c r="AD94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>5</v>
       </c>
       <c r="AE94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>6</v>
       </c>
       <c r="AF94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>1</v>
       </c>
       <c r="AG94" s="1">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>2</v>
       </c>
       <c r="AK94" s="1">
@@ -4671,7 +4769,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="95" spans="4:45">
       <c r="D95" s="1">
         <v>1</v>
       </c>
@@ -4745,7 +4843,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="96" spans="4:45">
       <c r="H96" s="1">
         <v>6</v>
       </c>
@@ -4798,7 +4896,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="97" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="97" spans="4:45">
       <c r="G97" s="1">
         <v>6</v>
       </c>
@@ -4833,7 +4931,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="98" spans="4:45">
       <c r="D98" s="1">
         <v>1</v>
       </c>
@@ -4872,23 +4970,23 @@
         <v>5</v>
       </c>
       <c r="AC98" s="1">
-        <f t="shared" ref="AC98:AG98" si="7">HLOOKUP(AC95,$AB$94:$AG$96,2,FALSE)</f>
+        <f t="shared" ref="AC98:AG98" si="9">HLOOKUP(AC95,$AB$94:$AG$96,2,FALSE)</f>
         <v>6</v>
       </c>
       <c r="AD98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
       <c r="AE98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
       <c r="AF98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>3</v>
       </c>
       <c r="AG98" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
       <c r="AK98" s="1">
@@ -4904,7 +5002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="99" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="99" spans="4:45">
       <c r="L99" s="1">
         <v>5</v>
       </c>
@@ -4945,7 +5043,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="100" spans="4:45">
       <c r="L100" s="1">
         <v>6</v>
       </c>
@@ -4981,23 +5079,23 @@
         <v>4</v>
       </c>
       <c r="AC100" s="1">
-        <f t="shared" ref="AC100:AG100" si="8">AC98-AC95</f>
+        <f t="shared" ref="AC100:AG100" si="10">AC98-AC95</f>
         <v>4</v>
       </c>
       <c r="AD100" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
       <c r="AE100" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
       <c r="AF100" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
       <c r="AG100" s="1">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>-2</v>
       </c>
       <c r="AO100" s="1">
@@ -5007,7 +5105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="101" spans="4:45">
       <c r="O101" s="1">
         <v>3</v>
       </c>
@@ -5021,7 +5119,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="102" spans="4:45">
       <c r="P102" s="1">
         <v>4</v>
       </c>
@@ -5035,7 +5133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="103" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="103" spans="4:45">
       <c r="Q103" s="1">
         <v>5</v>
       </c>
@@ -5049,7 +5147,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="104" spans="4:45">
       <c r="R104" s="1">
         <v>6</v>
       </c>
@@ -5075,7 +5173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="105" spans="4:45">
       <c r="S105" s="1">
         <v>1</v>
       </c>
@@ -5083,7 +5181,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="106" spans="4:45">
       <c r="O106" s="1">
         <v>3</v>
       </c>
@@ -5103,7 +5201,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="112" spans="4:45" x14ac:dyDescent="0.25">
+    <row r="112" spans="4:45">
       <c r="V112" s="1">
         <v>2</v>
       </c>
@@ -5123,7 +5221,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="22:30" x14ac:dyDescent="0.25">
+    <row r="113" spans="22:30">
       <c r="W113" s="1">
         <v>1</v>
       </c>
@@ -5137,7 +5235,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="22:30" x14ac:dyDescent="0.25">
+    <row r="114" spans="22:30">
       <c r="V114" s="1">
         <v>1</v>
       </c>
@@ -5148,7 +5246,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="22:30" x14ac:dyDescent="0.25">
+    <row r="115" spans="22:30">
       <c r="V115" s="1">
         <v>1</v>
       </c>
@@ -5168,7 +5266,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="22:30" x14ac:dyDescent="0.25">
+    <row r="116" spans="22:30">
       <c r="X116" s="1">
         <v>3</v>
       </c>
@@ -5182,7 +5280,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="22:30" x14ac:dyDescent="0.25">
+    <row r="117" spans="22:30">
       <c r="V117" s="1">
         <v>1</v>
       </c>
@@ -5199,7 +5297,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="118" spans="22:30" x14ac:dyDescent="0.25">
+    <row r="118" spans="22:30">
       <c r="Y118" s="1">
         <v>4</v>
       </c>
@@ -5220,14 +5318,14 @@
       <selection activeCell="K27" sqref="H27:K27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="11" width="4.7109375" style="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="7:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="7:13">
       <c r="G11" s="1">
         <v>1</v>
       </c>
@@ -5250,7 +5348,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="8:14">
       <c r="H18" s="1">
         <v>10</v>
       </c>
@@ -5273,7 +5371,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="19" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="8:14">
       <c r="I19" s="1" t="s">
         <v>17</v>
       </c>
@@ -5281,7 +5379,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="8:14">
       <c r="H21" s="1">
         <v>10</v>
       </c>
@@ -5304,7 +5402,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="22" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="8:14">
       <c r="K22" s="1" t="s">
         <v>17</v>
       </c>
@@ -5312,7 +5410,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="24" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="8:14">
       <c r="H24" s="1">
         <v>10</v>
       </c>
@@ -5335,7 +5433,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="25" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="8:14">
       <c r="K25" s="1" t="s">
         <v>19</v>
       </c>
@@ -5343,7 +5441,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="8:14">
       <c r="H27" s="1">
         <v>10</v>
       </c>
@@ -5366,7 +5464,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="8:14">
       <c r="K28" s="1" t="s">
         <v>19</v>
       </c>
@@ -5387,9 +5485,9 @@
       <selection activeCell="K30" sqref="F30:K30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <sheetData>
-    <row r="22" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="22" spans="6:27">
       <c r="K22">
         <v>2</v>
       </c>
@@ -5409,7 +5507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:27">
       <c r="F26">
         <v>1</v>
       </c>
@@ -5420,7 +5518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:27">
       <c r="F27">
         <v>1</v>
       </c>
@@ -5434,7 +5532,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:27">
       <c r="M29">
         <v>1</v>
       </c>
@@ -5472,7 +5570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:27">
       <c r="M30">
         <v>1</v>
       </c>
@@ -5510,7 +5608,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="31" spans="6:27" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:27">
       <c r="M31">
         <v>1</v>
       </c>
@@ -5548,7 +5646,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="33" spans="17:30" x14ac:dyDescent="0.25">
+    <row r="33" spans="17:30">
       <c r="Q33" t="s">
         <v>20</v>
       </c>
@@ -5571,18 +5669,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF082638-1CAB-438C-807C-7C5CDDCFB1E8}">
   <dimension ref="G12:AX142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O118" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="O121" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="AE142" sqref="AE142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="19" width="4.7109375" style="1"/>
     <col min="20" max="20" width="6.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="21" max="16384" width="4.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="8:14">
       <c r="H12" s="1">
         <v>-2</v>
       </c>
@@ -5605,7 +5703,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="8:14">
       <c r="H13" s="1">
         <v>-2</v>
       </c>
@@ -5625,7 +5723,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="20" spans="17:50">
       <c r="AK20" s="1">
         <v>1</v>
       </c>
@@ -5645,7 +5743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="21" spans="17:50">
       <c r="R21" s="1">
         <v>-2</v>
       </c>
@@ -5674,7 +5772,7 @@
         <v>-2</v>
       </c>
     </row>
-    <row r="22" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="22" spans="17:50">
       <c r="Q22" s="1">
         <v>1</v>
       </c>
@@ -5685,7 +5783,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="23" spans="17:50">
       <c r="Q23" s="1">
         <v>2</v>
       </c>
@@ -5699,7 +5797,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="24" spans="17:50">
       <c r="Q24" s="1">
         <v>3</v>
       </c>
@@ -5713,7 +5811,7 @@
         <v>-4</v>
       </c>
     </row>
-    <row r="25" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="25" spans="17:50">
       <c r="Q25" s="1">
         <v>4</v>
       </c>
@@ -5724,17 +5822,17 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="26" spans="17:50">
       <c r="Q26" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="27" spans="17:50">
       <c r="Q27" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="29" spans="17:50">
       <c r="AG29" s="1">
         <v>2</v>
       </c>
@@ -5772,7 +5870,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="30" spans="17:50">
       <c r="W30" s="1">
         <v>2</v>
       </c>
@@ -5795,7 +5893,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="31" spans="17:50">
       <c r="V31" s="1">
         <v>3</v>
       </c>
@@ -5815,7 +5913,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="17:50" x14ac:dyDescent="0.25">
+    <row r="32" spans="17:50">
       <c r="V32" s="1">
         <v>7</v>
       </c>
@@ -5832,7 +5930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="22:47" x14ac:dyDescent="0.25">
+    <row r="33" spans="22:47">
       <c r="V33" s="1">
         <v>4</v>
       </c>
@@ -5852,7 +5950,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="22:47" x14ac:dyDescent="0.25">
+    <row r="34" spans="22:47">
       <c r="V34" s="1">
         <v>6</v>
       </c>
@@ -5869,7 +5967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="22:47" x14ac:dyDescent="0.25">
+    <row r="35" spans="22:47">
       <c r="V35" s="1">
         <v>5</v>
       </c>
@@ -5889,7 +5987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="22:47" x14ac:dyDescent="0.25">
+    <row r="36" spans="22:47">
       <c r="AF36" s="1">
         <v>1</v>
       </c>
@@ -5900,7 +5998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="22:47" x14ac:dyDescent="0.25">
+    <row r="37" spans="22:47">
       <c r="AT37" s="1">
         <v>5</v>
       </c>
@@ -5908,12 +6006,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="22:47" x14ac:dyDescent="0.25">
+    <row r="38" spans="22:47">
       <c r="AT38" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="8:47" x14ac:dyDescent="0.25">
+    <row r="51" spans="8:47">
       <c r="I51" s="1">
         <v>-2</v>
       </c>
@@ -5988,7 +6086,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="8:47" x14ac:dyDescent="0.25">
+    <row r="52" spans="8:47">
       <c r="H52" s="1">
         <v>-2</v>
       </c>
@@ -6041,7 +6139,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="8:47" x14ac:dyDescent="0.25">
+    <row r="53" spans="8:47">
       <c r="H53" s="1">
         <v>1</v>
       </c>
@@ -6067,7 +6165,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="54" spans="8:47" x14ac:dyDescent="0.25">
+    <row r="54" spans="8:47">
       <c r="H54" s="1">
         <v>3</v>
       </c>
@@ -6084,7 +6182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="8:47" x14ac:dyDescent="0.25">
+    <row r="55" spans="8:47">
       <c r="H55" s="1">
         <v>-4</v>
       </c>
@@ -6101,7 +6199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="8:47" x14ac:dyDescent="0.25">
+    <row r="56" spans="8:47">
       <c r="H56" s="1">
         <v>5</v>
       </c>
@@ -6112,7 +6210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="8:47" x14ac:dyDescent="0.25">
+    <row r="57" spans="8:47">
       <c r="H57" s="1">
         <v>6</v>
       </c>
@@ -6132,22 +6230,22 @@
         <v>5</v>
       </c>
     </row>
-    <row r="58" spans="8:47" x14ac:dyDescent="0.25">
+    <row r="58" spans="8:47">
       <c r="AL58" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="8:47" x14ac:dyDescent="0.25">
+    <row r="59" spans="8:47">
       <c r="AL59" s="1">
         <v>5</v>
       </c>
     </row>
-    <row r="60" spans="8:47" x14ac:dyDescent="0.25">
+    <row r="60" spans="8:47">
       <c r="AL60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="69" spans="7:21">
       <c r="H69" s="1">
         <v>5</v>
       </c>
@@ -6164,7 +6262,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="7:21">
       <c r="H74" s="1">
         <v>0</v>
       </c>
@@ -6199,7 +6297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="75" spans="7:21">
       <c r="H75" s="1">
         <v>-2</v>
       </c>
@@ -6234,7 +6332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="7:21">
       <c r="G76" s="1" t="s">
         <v>5</v>
       </c>
@@ -6266,7 +6364,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="77" spans="7:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="7:21">
       <c r="G77" s="1" t="s">
         <v>14</v>
       </c>
@@ -6298,7 +6396,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="7:31" x14ac:dyDescent="0.25">
+    <row r="84" spans="7:31">
       <c r="G84" s="1">
         <v>1</v>
       </c>
@@ -6318,7 +6416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="7:31" x14ac:dyDescent="0.25">
+    <row r="85" spans="7:31">
       <c r="G85" s="1">
         <v>1</v>
       </c>
@@ -6338,7 +6436,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="91" spans="7:31" x14ac:dyDescent="0.25">
+    <row r="91" spans="7:31">
       <c r="P91" s="1">
         <v>1</v>
       </c>
@@ -6349,7 +6447,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="7:31" x14ac:dyDescent="0.25">
+    <row r="92" spans="7:31">
       <c r="O92" s="1">
         <v>1</v>
       </c>
@@ -6366,7 +6464,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="93" spans="7:31" x14ac:dyDescent="0.25">
+    <row r="93" spans="7:31">
       <c r="N93" s="1">
         <v>1</v>
       </c>
@@ -6389,7 +6487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="7:31" x14ac:dyDescent="0.25">
+    <row r="94" spans="7:31">
       <c r="M94" s="1">
         <v>1</v>
       </c>
@@ -6418,7 +6516,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="95" spans="7:31" x14ac:dyDescent="0.25">
+    <row r="95" spans="7:31">
       <c r="L95" s="1">
         <v>1</v>
       </c>
@@ -6453,7 +6551,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="100" spans="19:46">
       <c r="S100" s="4">
         <v>0</v>
       </c>
@@ -6464,7 +6562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="101" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="101" spans="19:46">
       <c r="S101" s="4">
         <v>1</v>
       </c>
@@ -6475,7 +6573,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="102" spans="19:46">
       <c r="S102" s="11">
         <v>2</v>
       </c>
@@ -6486,7 +6584,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="103" spans="19:46">
       <c r="S103" s="11">
         <v>3</v>
       </c>
@@ -6497,7 +6595,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="104" spans="19:46">
       <c r="S104" s="1">
         <v>4</v>
       </c>
@@ -6508,7 +6606,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="105" spans="19:46">
       <c r="S105" s="1">
         <v>5</v>
       </c>
@@ -6519,7 +6617,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="106" spans="19:46">
       <c r="S106" s="1">
         <v>6</v>
       </c>
@@ -6530,7 +6628,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="107" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="107" spans="19:46">
       <c r="S107" s="1">
         <v>7</v>
       </c>
@@ -6541,7 +6639,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="108" spans="19:46">
       <c r="S108" s="11">
         <v>8</v>
       </c>
@@ -6552,7 +6650,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="109" spans="19:46">
       <c r="S109" s="11">
         <v>9</v>
       </c>
@@ -6566,7 +6664,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="110" spans="19:46">
       <c r="S110" s="11">
         <v>10</v>
       </c>
@@ -6577,7 +6675,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="111" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="111" spans="19:46">
       <c r="S111" s="11">
         <v>11</v>
       </c>
@@ -6610,7 +6708,7 @@
         <v>-</v>
       </c>
     </row>
-    <row r="112" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="112" spans="19:46">
       <c r="S112" s="11">
         <v>12</v>
       </c>
@@ -6642,7 +6740,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="113" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="113" spans="19:46">
       <c r="S113" s="11">
         <v>13</v>
       </c>
@@ -6674,7 +6772,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="114" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="114" spans="19:46">
       <c r="S114" s="11">
         <v>14</v>
       </c>
@@ -6706,7 +6804,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="115" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="115" spans="19:46">
       <c r="S115" s="11">
         <v>15</v>
       </c>
@@ -6717,7 +6815,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="116" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="116" spans="19:46">
       <c r="S116" s="1">
         <v>16</v>
       </c>
@@ -6725,17 +6823,17 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="117" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="117" spans="19:46">
       <c r="S117" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="118" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="118" spans="19:46">
       <c r="S118" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="119" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="119" spans="19:46">
       <c r="S119" s="1">
         <v>31</v>
       </c>
@@ -6743,7 +6841,7 @@
         <v>11111</v>
       </c>
     </row>
-    <row r="120" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="120" spans="19:46">
       <c r="S120" s="11">
         <v>32</v>
       </c>
@@ -6754,7 +6852,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="121" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="121" spans="19:46">
       <c r="S121" s="11" t="s">
         <v>22</v>
       </c>
@@ -6765,7 +6863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="122" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="122" spans="19:46">
       <c r="S122" s="11" t="s">
         <v>22</v>
       </c>
@@ -6785,7 +6883,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="123" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="123" spans="19:46">
       <c r="S123" s="11">
         <v>64</v>
       </c>
@@ -6824,7 +6922,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="124" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="124" spans="19:46">
       <c r="AE124" s="1" t="s">
         <v>16</v>
       </c>
@@ -6838,7 +6936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="125" spans="19:46">
       <c r="AE125" s="1" t="s">
         <v>17</v>
       </c>
@@ -6852,7 +6950,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="126" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="126" spans="19:46">
       <c r="AE126" s="1" t="s">
         <v>18</v>
       </c>
@@ -6866,7 +6964,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="127" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="127" spans="19:46">
       <c r="AE127" s="1" t="s">
         <v>23</v>
       </c>
@@ -6880,7 +6978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="19:46" x14ac:dyDescent="0.25">
+    <row r="128" spans="19:46">
       <c r="AE128" s="1" t="s">
         <v>32</v>
       </c>
@@ -6896,7 +6994,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="131" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="131" spans="22:44">
       <c r="V131" s="1" t="s">
         <v>9</v>
       </c>
@@ -6928,7 +7026,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="132" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="132" spans="22:44">
       <c r="W132" s="1" t="s">
         <v>16</v>
       </c>
@@ -6942,7 +7040,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="133" spans="22:44">
       <c r="W133" s="1" t="s">
         <v>17</v>
       </c>
@@ -6953,7 +7051,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="134" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="134" spans="22:44">
       <c r="W134" s="1" t="s">
         <v>18</v>
       </c>
@@ -6961,12 +7059,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="135" spans="22:44">
       <c r="W135" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="137" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="137" spans="22:44">
       <c r="AN137" s="1" t="s">
         <v>9</v>
       </c>
@@ -6983,7 +7081,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="138" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="138" spans="22:44">
       <c r="V138" s="1" t="s">
         <v>26</v>
       </c>
@@ -7036,7 +7134,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="139" spans="22:44">
       <c r="V139" s="1" t="s">
         <v>27</v>
       </c>
@@ -7077,7 +7175,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="140" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="140" spans="22:44">
       <c r="V140" s="1" t="s">
         <v>28</v>
       </c>
@@ -7103,7 +7201,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="141" spans="22:44">
       <c r="V141" s="1" t="s">
         <v>24</v>
       </c>
@@ -7111,7 +7209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="142" spans="22:44" x14ac:dyDescent="0.25">
+    <row r="142" spans="22:44">
       <c r="V142" s="1" t="s">
         <v>34</v>
       </c>
@@ -7119,4 +7217,1954 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32FE7F7-B5E4-4E8D-81E0-4C33AFBF73DF}">
+  <dimension ref="C7:AI101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="AD99" sqref="AD99"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="4.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="9:31">
+      <c r="I7" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="9:31">
+      <c r="I8" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="9:31">
+      <c r="I9" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="12" spans="9:31">
+      <c r="I12" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="9:31">
+      <c r="I13" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="14" spans="9:31">
+      <c r="M14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="U14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y14" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA14" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AC14" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD14" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AE14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="9:31">
+      <c r="M15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O15" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="T15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>0</v>
+      </c>
+      <c r="X15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="9:31">
+      <c r="T16" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U16" s="1">
+        <v>0</v>
+      </c>
+      <c r="V16" s="1">
+        <v>0</v>
+      </c>
+      <c r="W16" s="1">
+        <v>1</v>
+      </c>
+      <c r="X16" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:31">
+      <c r="T17" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="U17" s="1">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
+        <v>0</v>
+      </c>
+      <c r="W17" s="1">
+        <v>0</v>
+      </c>
+      <c r="X17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="9:31">
+      <c r="I25" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="O25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U25" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="26" spans="9:31">
+      <c r="I26" s="13" t="s">
+        <v>60</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M26" s="1">
+        <v>0</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1</v>
+      </c>
+      <c r="O26" s="1">
+        <v>0</v>
+      </c>
+      <c r="P26" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>0</v>
+      </c>
+      <c r="T26" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U26" s="1">
+        <v>0</v>
+      </c>
+      <c r="V26" s="1">
+        <v>1</v>
+      </c>
+      <c r="W26" s="1">
+        <v>0</v>
+      </c>
+      <c r="X26" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="9:31">
+      <c r="L27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U27" s="1">
+        <v>0</v>
+      </c>
+      <c r="V27" s="1">
+        <v>0</v>
+      </c>
+      <c r="W27" s="1">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="9:31">
+      <c r="L28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T28" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="U28" s="1">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>0</v>
+      </c>
+      <c r="W28" s="1">
+        <v>0</v>
+      </c>
+      <c r="X28" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="9:31">
+      <c r="U32" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X32" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="4:35">
+      <c r="T33" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U33" s="1">
+        <v>0</v>
+      </c>
+      <c r="V33" s="1">
+        <v>1</v>
+      </c>
+      <c r="W33" s="1">
+        <v>0</v>
+      </c>
+      <c r="X33" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:35">
+      <c r="T34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U34" s="1">
+        <v>0</v>
+      </c>
+      <c r="V34" s="1">
+        <v>0</v>
+      </c>
+      <c r="W34" s="1">
+        <v>1</v>
+      </c>
+      <c r="X34" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="4:35">
+      <c r="T35" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="4:35">
+      <c r="U37" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X37" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Y37" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH37" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="4:35">
+      <c r="T38" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U38" s="1">
+        <v>0</v>
+      </c>
+      <c r="V38" s="1">
+        <v>1</v>
+      </c>
+      <c r="W38" s="1">
+        <v>0</v>
+      </c>
+      <c r="X38" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:35">
+      <c r="T39" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="U39" s="1">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>0</v>
+      </c>
+      <c r="W39" s="1">
+        <v>2</v>
+      </c>
+      <c r="X39" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="4:35">
+      <c r="T40" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB40" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC40" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="4:35">
+      <c r="AB41" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD41" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="44" spans="4:35">
+      <c r="E44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="R44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="X44" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z44" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AB44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AC44" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="AE44" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="4:35">
+      <c r="D45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E45" s="1">
+        <v>0</v>
+      </c>
+      <c r="F45" s="1">
+        <v>1</v>
+      </c>
+      <c r="G45" s="1">
+        <v>0</v>
+      </c>
+      <c r="H45" s="1">
+        <v>2</v>
+      </c>
+      <c r="I45" s="1">
+        <v>2</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2</v>
+      </c>
+      <c r="M45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>0</v>
+      </c>
+      <c r="R45" s="1">
+        <v>2</v>
+      </c>
+      <c r="S45" s="1">
+        <v>2</v>
+      </c>
+      <c r="T45" s="1">
+        <v>2</v>
+      </c>
+      <c r="W45" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X45" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AD45" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="4:35">
+      <c r="D46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E46" s="1">
+        <v>0</v>
+      </c>
+      <c r="F46" s="1">
+        <v>0</v>
+      </c>
+      <c r="M46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N46" s="1">
+        <v>0</v>
+      </c>
+      <c r="W46" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC46" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD46" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="4:35">
+      <c r="D47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E47" s="1">
+        <v>0</v>
+      </c>
+      <c r="M47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="N47" s="1">
+        <v>0</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="X47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="4:35">
+      <c r="M48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N48" s="1">
+        <v>0</v>
+      </c>
+      <c r="W48" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X48" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="3:32">
+      <c r="N53" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O53" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R53" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T53" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="U53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V53" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="W53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="X53" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="3:32">
+      <c r="M54" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N54" s="14">
+        <v>2</v>
+      </c>
+      <c r="O54" s="14">
+        <v>2</v>
+      </c>
+      <c r="P54" s="14">
+        <v>2</v>
+      </c>
+      <c r="Q54" s="14">
+        <v>2</v>
+      </c>
+      <c r="R54" s="14">
+        <v>0</v>
+      </c>
+      <c r="S54" s="14">
+        <v>1</v>
+      </c>
+      <c r="T54" s="14">
+        <v>1</v>
+      </c>
+      <c r="U54" s="14">
+        <v>1</v>
+      </c>
+      <c r="V54" s="14">
+        <v>1</v>
+      </c>
+      <c r="W54" s="14">
+        <v>1</v>
+      </c>
+      <c r="X54" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="3:32">
+      <c r="M55" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="N55" s="1">
+        <v>0</v>
+      </c>
+      <c r="O55" s="5">
+        <v>0</v>
+      </c>
+      <c r="P55" s="5">
+        <v>0</v>
+      </c>
+      <c r="Q55" s="5">
+        <v>1</v>
+      </c>
+      <c r="R55" s="5">
+        <v>2</v>
+      </c>
+      <c r="S55" s="5">
+        <v>2</v>
+      </c>
+      <c r="T55" s="5">
+        <v>2</v>
+      </c>
+      <c r="U55" s="5">
+        <v>2</v>
+      </c>
+      <c r="V55" s="5">
+        <v>2</v>
+      </c>
+      <c r="W55" s="5">
+        <v>2</v>
+      </c>
+      <c r="X55" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="3:32">
+      <c r="M56" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O56" s="5"/>
+      <c r="P56" s="5"/>
+      <c r="Q56" s="5"/>
+      <c r="R56" s="5"/>
+      <c r="S56" s="5"/>
+      <c r="T56" s="5"/>
+      <c r="U56" s="5"/>
+      <c r="V56" s="5"/>
+      <c r="W56" s="5"/>
+      <c r="X56" s="5"/>
+    </row>
+    <row r="57" spans="3:32">
+      <c r="M57" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O57" s="5"/>
+      <c r="P57" s="5"/>
+      <c r="Q57" s="5"/>
+      <c r="R57" s="5"/>
+      <c r="S57" s="5"/>
+      <c r="T57" s="5"/>
+      <c r="U57" s="5"/>
+      <c r="V57" s="5"/>
+      <c r="W57" s="5"/>
+      <c r="X57" s="5"/>
+    </row>
+    <row r="60" spans="3:32">
+      <c r="D60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="M60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T60" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U60" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W60" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z60" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB60" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD60" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF60" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="3:32">
+      <c r="C61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D61" s="1">
+        <v>2</v>
+      </c>
+      <c r="E61" s="1">
+        <v>2</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2</v>
+      </c>
+      <c r="G61" s="1">
+        <v>2</v>
+      </c>
+      <c r="H61" s="1">
+        <v>0</v>
+      </c>
+      <c r="I61" s="1">
+        <v>1</v>
+      </c>
+      <c r="J61" s="1">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1">
+        <v>1</v>
+      </c>
+      <c r="L61" s="1">
+        <v>1</v>
+      </c>
+      <c r="M61" s="1">
+        <v>1</v>
+      </c>
+      <c r="N61" s="1">
+        <v>1</v>
+      </c>
+      <c r="O61" s="1">
+        <v>1</v>
+      </c>
+      <c r="P61" s="1">
+        <v>2</v>
+      </c>
+      <c r="S61" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T61" s="1">
+        <v>2</v>
+      </c>
+      <c r="U61" s="1">
+        <v>2</v>
+      </c>
+      <c r="V61" s="1">
+        <v>2</v>
+      </c>
+      <c r="W61" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="3:32">
+      <c r="C62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D62" s="1">
+        <v>0</v>
+      </c>
+      <c r="E62" s="1">
+        <v>0</v>
+      </c>
+      <c r="F62" s="1">
+        <v>0</v>
+      </c>
+      <c r="G62" s="1">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1">
+        <v>2</v>
+      </c>
+      <c r="I62" s="1">
+        <v>2</v>
+      </c>
+      <c r="J62" s="1">
+        <v>0</v>
+      </c>
+      <c r="S62" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T62" s="1">
+        <v>0</v>
+      </c>
+      <c r="U62" s="1">
+        <v>0</v>
+      </c>
+      <c r="V62" s="1">
+        <v>0</v>
+      </c>
+      <c r="W62" s="1">
+        <v>1</v>
+      </c>
+      <c r="X62" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF62" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="3:32">
+      <c r="C63" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="S63" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="64" spans="3:32">
+      <c r="C64" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="S64" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="3:33">
+      <c r="C65" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S65" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="70" spans="3:33">
+      <c r="T70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U70" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W70" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z70" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB70" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC70" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD70" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF70" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG70" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="3:33">
+      <c r="P71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>2</v>
+      </c>
+      <c r="S71" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T71" s="1">
+        <v>1</v>
+      </c>
+      <c r="U71" s="1">
+        <v>1</v>
+      </c>
+      <c r="V71" s="1">
+        <v>1</v>
+      </c>
+      <c r="W71" s="1">
+        <v>1</v>
+      </c>
+      <c r="X71" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="3:33">
+      <c r="P72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>2</v>
+      </c>
+      <c r="S72" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T72" s="1">
+        <v>2</v>
+      </c>
+      <c r="U72" s="1">
+        <v>2</v>
+      </c>
+      <c r="V72" s="1">
+        <v>2</v>
+      </c>
+      <c r="W72" s="1">
+        <v>2</v>
+      </c>
+      <c r="X72" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF72" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:33">
+      <c r="P73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>1</v>
+      </c>
+      <c r="S73" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="T73" s="1">
+        <v>1</v>
+      </c>
+      <c r="U73" s="1">
+        <v>1</v>
+      </c>
+      <c r="V73" s="1">
+        <v>1</v>
+      </c>
+      <c r="W73" s="1">
+        <v>1</v>
+      </c>
+      <c r="X73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF73" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="3:33">
+      <c r="S74" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="T74" s="15">
+        <v>1</v>
+      </c>
+      <c r="U74" s="15">
+        <v>1</v>
+      </c>
+      <c r="V74" s="15">
+        <v>1</v>
+      </c>
+      <c r="W74" s="15">
+        <v>1</v>
+      </c>
+      <c r="X74" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y74" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z74" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA74" s="15">
+        <v>1</v>
+      </c>
+      <c r="AB74" s="15">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="15">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE74" s="15">
+        <v>1</v>
+      </c>
+      <c r="AF74" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG74" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="3:33">
+      <c r="S75" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="T75" s="15">
+        <v>2</v>
+      </c>
+      <c r="U75" s="15">
+        <v>2</v>
+      </c>
+      <c r="V75" s="15">
+        <v>2</v>
+      </c>
+      <c r="W75" s="15">
+        <v>2</v>
+      </c>
+      <c r="X75" s="15">
+        <v>1</v>
+      </c>
+      <c r="Y75" s="15">
+        <v>1</v>
+      </c>
+      <c r="Z75" s="15">
+        <v>0</v>
+      </c>
+      <c r="AA75" s="15">
+        <v>0</v>
+      </c>
+      <c r="AB75" s="15">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="15">
+        <v>0</v>
+      </c>
+      <c r="AD75" s="15">
+        <v>0</v>
+      </c>
+      <c r="AE75" s="15">
+        <v>0</v>
+      </c>
+      <c r="AF75" s="15">
+        <v>0</v>
+      </c>
+      <c r="AG75" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:33">
+      <c r="T78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="U78" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="W78" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="X78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="Y78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z78" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB78" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC78" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AD78" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF78" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AG78" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="79" spans="3:33">
+      <c r="S79" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T79" s="1">
+        <v>2</v>
+      </c>
+      <c r="U79" s="1">
+        <v>2</v>
+      </c>
+      <c r="V79" s="1">
+        <v>2</v>
+      </c>
+      <c r="W79" s="1">
+        <v>2</v>
+      </c>
+      <c r="X79" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF79" s="1">
+        <v>2</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="3:33">
+      <c r="S80" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="T80" s="1">
+        <v>0</v>
+      </c>
+      <c r="U80" s="1">
+        <v>0</v>
+      </c>
+      <c r="V80" s="1">
+        <v>0</v>
+      </c>
+      <c r="W80" s="1">
+        <v>1</v>
+      </c>
+      <c r="X80" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="10:32">
+      <c r="S81" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="82" spans="10:32">
+      <c r="S82" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="10:32">
+      <c r="S83" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="86" spans="10:32">
+      <c r="J86" s="17"/>
+      <c r="K86" s="17"/>
+      <c r="L86" s="17"/>
+      <c r="M86" s="17"/>
+      <c r="N86" s="17"/>
+      <c r="O86" s="17"/>
+      <c r="P86" s="17"/>
+      <c r="Q86" s="17"/>
+      <c r="R86" s="17"/>
+      <c r="S86" s="17"/>
+      <c r="T86" s="17"/>
+      <c r="U86" s="17"/>
+      <c r="V86" s="17"/>
+      <c r="W86" s="17"/>
+      <c r="X86" s="17"/>
+      <c r="Y86" s="17"/>
+      <c r="Z86" s="17"/>
+      <c r="AA86" s="17"/>
+      <c r="AB86" s="17"/>
+      <c r="AC86" s="17"/>
+      <c r="AD86" s="17"/>
+      <c r="AE86" s="17"/>
+      <c r="AF86" s="17"/>
+    </row>
+    <row r="87" spans="10:32">
+      <c r="M87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="S87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W87" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD87" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF87" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="88" spans="10:32">
+      <c r="L88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="M88" s="1">
+        <v>3</v>
+      </c>
+      <c r="N88" s="1">
+        <v>1</v>
+      </c>
+      <c r="R88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S88" s="8">
+        <v>2</v>
+      </c>
+      <c r="T88" s="8">
+        <v>2</v>
+      </c>
+      <c r="U88" s="8">
+        <v>2</v>
+      </c>
+      <c r="V88" s="8">
+        <v>2</v>
+      </c>
+      <c r="W88" s="8">
+        <v>2</v>
+      </c>
+      <c r="X88" s="8">
+        <v>2</v>
+      </c>
+      <c r="Y88" s="8">
+        <v>2</v>
+      </c>
+      <c r="Z88" s="8">
+        <v>2</v>
+      </c>
+      <c r="AA88" s="8">
+        <v>2</v>
+      </c>
+      <c r="AB88" s="8">
+        <v>2</v>
+      </c>
+      <c r="AC88" s="8">
+        <v>2</v>
+      </c>
+      <c r="AD88" s="8">
+        <v>2</v>
+      </c>
+      <c r="AE88" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF88" s="8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="10:32">
+      <c r="L89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="M89" s="1">
+        <v>2</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0</v>
+      </c>
+      <c r="R89" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="S89" s="1">
+        <v>2</v>
+      </c>
+      <c r="T89" s="1">
+        <v>2</v>
+      </c>
+      <c r="U89" s="1">
+        <v>2</v>
+      </c>
+      <c r="V89" s="1">
+        <v>2</v>
+      </c>
+      <c r="W89" s="1">
+        <v>1</v>
+      </c>
+      <c r="X89" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="10:32">
+      <c r="L90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0</v>
+      </c>
+      <c r="R90" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="91" spans="10:32">
+      <c r="R91" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="92" spans="10:32">
+      <c r="R92" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="S92" s="1">
+        <v>1</v>
+      </c>
+      <c r="T92" s="1">
+        <v>1</v>
+      </c>
+      <c r="U92" s="1">
+        <v>1</v>
+      </c>
+      <c r="V92" s="1">
+        <v>1</v>
+      </c>
+      <c r="W92" s="1">
+        <v>1</v>
+      </c>
+      <c r="X92" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB92" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF92" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="10:32">
+      <c r="R93" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="95" spans="10:32">
+      <c r="S95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T95" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="U95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="V95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="W95" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="X95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y95" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Z95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA95" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB95" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="AC95" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="AD95" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AE95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF95" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="96" spans="10:32">
+      <c r="R96" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="S96" s="8">
+        <v>2</v>
+      </c>
+      <c r="T96" s="8">
+        <v>2</v>
+      </c>
+      <c r="U96" s="8">
+        <v>2</v>
+      </c>
+      <c r="V96" s="8">
+        <v>2</v>
+      </c>
+      <c r="W96" s="8">
+        <v>0</v>
+      </c>
+      <c r="X96" s="8">
+        <v>1</v>
+      </c>
+      <c r="Y96" s="8">
+        <v>1</v>
+      </c>
+      <c r="Z96" s="8">
+        <v>1</v>
+      </c>
+      <c r="AA96" s="8">
+        <v>1</v>
+      </c>
+      <c r="AB96" s="8">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="8">
+        <v>0</v>
+      </c>
+      <c r="AD96" s="8">
+        <v>1</v>
+      </c>
+      <c r="AE96" s="8">
+        <v>1</v>
+      </c>
+      <c r="AF96" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="18:31">
+      <c r="R97" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="S97" s="1">
+        <v>0</v>
+      </c>
+      <c r="T97" s="1">
+        <v>0</v>
+      </c>
+      <c r="U97" s="1">
+        <v>0</v>
+      </c>
+      <c r="V97" s="1">
+        <v>1</v>
+      </c>
+      <c r="W97" s="1">
+        <v>2</v>
+      </c>
+      <c r="X97" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z97" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA97" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB97" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD97" s="1">
+        <v>0</v>
+      </c>
+      <c r="AE97" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="18:31">
+      <c r="R98" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="99" spans="18:31">
+      <c r="R99" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="100" spans="18:31">
+      <c r="R100" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="101" spans="18:31">
+      <c r="R101" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
+++ b/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\zz Non-LeetCode\Random Study Session 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58FF3C37-E628-47DB-BA73-38504045A1E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4D539-003B-4CE6-8675-C1C1C210F5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -65,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="94">
   <si>
     <t>Size</t>
   </si>
@@ -271,7 +272,82 @@
     <t>tot</t>
   </si>
   <si>
-    <t>frced</t>
+    <t>need</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
+  <si>
+    <t>frcd</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>dA</t>
+  </si>
+  <si>
+    <t>dAb</t>
+  </si>
+  <si>
+    <t>dAbC</t>
+  </si>
+  <si>
+    <t>AB</t>
+  </si>
+  <si>
+    <t>ABC</t>
+  </si>
+  <si>
+    <t>s2len</t>
+  </si>
+  <si>
+    <t>s1len</t>
+  </si>
+  <si>
+    <t>more candy</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>candies</t>
+  </si>
+  <si>
+    <t>&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;</t>
+  </si>
+  <si>
+    <t>&gt;&lt;</t>
+  </si>
+  <si>
+    <t>BASE</t>
+  </si>
+  <si>
+    <t>^</t>
+  </si>
+  <si>
+    <t>v</t>
+  </si>
+  <si>
+    <t>&gt;|&lt;</t>
+  </si>
+  <si>
+    <t>&gt;|_</t>
+  </si>
+  <si>
+    <t>_|_</t>
+  </si>
+  <si>
+    <t>ed</t>
   </si>
 </sst>
 </file>
@@ -307,7 +383,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -368,6 +444,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -381,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,11 +520,38 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1748,6 +1863,874 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E971C406-2954-4140-A9F3-E7B0E7A7F757}">
+  <dimension ref="L7:AN80"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="L70" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="V79" sqref="V79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="16384" width="4.7109375" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="7" spans="12:20">
+      <c r="N7" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="8" spans="12:20">
+      <c r="N8" s="1">
+        <v>1</v>
+      </c>
+      <c r="O8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="12:20">
+      <c r="O9" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="12:20">
+      <c r="L14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="S14" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15" spans="12:20">
+      <c r="M15" s="1">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>24</v>
+      </c>
+      <c r="O15" s="1">
+        <v>12</v>
+      </c>
+      <c r="P15" s="1">
+        <v>41</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>24</v>
+      </c>
+      <c r="R15" s="1">
+        <v>124</v>
+      </c>
+      <c r="S15" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="22" spans="13:18">
+      <c r="M22" s="1">
+        <v>4</v>
+      </c>
+      <c r="N22" s="1">
+        <v>6</v>
+      </c>
+      <c r="O22" s="1">
+        <v>4</v>
+      </c>
+      <c r="P22" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>6</v>
+      </c>
+      <c r="R22" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="13:18">
+      <c r="M23" s="1">
+        <v>1</v>
+      </c>
+      <c r="N23" s="1">
+        <v>2</v>
+      </c>
+      <c r="O23" s="1">
+        <v>2</v>
+      </c>
+      <c r="P23" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="13:18">
+      <c r="M28" s="1">
+        <v>1</v>
+      </c>
+      <c r="N28" s="1">
+        <v>2</v>
+      </c>
+      <c r="O28" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="13:18">
+      <c r="M29" s="1">
+        <v>1</v>
+      </c>
+      <c r="N29" s="1">
+        <v>2</v>
+      </c>
+      <c r="O29" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="12:36">
+      <c r="L33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="M33" s="1">
+        <v>2</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1</v>
+      </c>
+      <c r="O33" s="1">
+        <v>2</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>2</v>
+      </c>
+      <c r="R33" s="1">
+        <v>3</v>
+      </c>
+      <c r="S33" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34" spans="12:36">
+      <c r="L34" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="M34" s="1">
+        <v>2</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1">
+        <v>2</v>
+      </c>
+      <c r="P34" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>1</v>
+      </c>
+      <c r="R34" s="1">
+        <v>2</v>
+      </c>
+      <c r="S34" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="12:36">
+      <c r="N38" s="1">
+        <v>1</v>
+      </c>
+      <c r="O38" s="1">
+        <v>5</v>
+      </c>
+      <c r="P38" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>3</v>
+      </c>
+      <c r="R38" s="1">
+        <v>2</v>
+      </c>
+      <c r="S38" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="12:36">
+      <c r="N40" s="1">
+        <v>1</v>
+      </c>
+      <c r="O40" s="1">
+        <v>5</v>
+      </c>
+      <c r="P40" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>3</v>
+      </c>
+      <c r="R40" s="1">
+        <v>3</v>
+      </c>
+      <c r="S40" s="1">
+        <v>1</v>
+      </c>
+      <c r="U40" s="1">
+        <f>SUM(L40:S40)</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="44" spans="12:36">
+      <c r="N44" s="1">
+        <v>1</v>
+      </c>
+      <c r="O44" s="1">
+        <v>5</v>
+      </c>
+      <c r="P44" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>3</v>
+      </c>
+      <c r="R44" s="1">
+        <v>2</v>
+      </c>
+      <c r="S44" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="12:36">
+      <c r="N45" s="1">
+        <v>0</v>
+      </c>
+      <c r="O45" s="1">
+        <v>1</v>
+      </c>
+      <c r="P45" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>1</v>
+      </c>
+      <c r="R45" s="1">
+        <v>1</v>
+      </c>
+      <c r="S45" s="1">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="12:36">
+      <c r="X46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD46" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AE46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="AF46" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="AG46" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="12:36">
+      <c r="N47" s="1">
+        <v>1</v>
+      </c>
+      <c r="O47" s="1">
+        <v>3</v>
+      </c>
+      <c r="P47" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>5</v>
+      </c>
+      <c r="R47" s="1">
+        <v>4</v>
+      </c>
+      <c r="S47" s="1">
+        <v>3</v>
+      </c>
+      <c r="T47" s="1">
+        <v>2</v>
+      </c>
+      <c r="U47" s="1">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1">
+        <v>3</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>2</v>
+      </c>
+      <c r="Z47" s="11">
+        <v>1</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AB47" s="1">
+        <v>3</v>
+      </c>
+      <c r="AC47" s="1">
+        <v>3</v>
+      </c>
+      <c r="AD47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF47" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>2</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="12:36">
+      <c r="N48" s="1">
+        <v>1</v>
+      </c>
+      <c r="O48" s="1">
+        <v>2</v>
+      </c>
+      <c r="P48" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>5</v>
+      </c>
+      <c r="R48" s="1">
+        <v>4</v>
+      </c>
+      <c r="S48" s="1">
+        <v>3</v>
+      </c>
+      <c r="T48" s="1">
+        <v>2</v>
+      </c>
+      <c r="U48" s="1">
+        <v>1</v>
+      </c>
+      <c r="X48" s="15">
+        <v>3</v>
+      </c>
+      <c r="Y48" s="15">
+        <v>2</v>
+      </c>
+      <c r="Z48" s="15">
+        <v>1</v>
+      </c>
+      <c r="AA48" s="15">
+        <v>2</v>
+      </c>
+      <c r="AB48" s="15">
+        <v>3</v>
+      </c>
+      <c r="AC48" s="15">
+        <v>2</v>
+      </c>
+      <c r="AD48" s="15">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="15">
+        <v>2</v>
+      </c>
+      <c r="AF48" s="15">
+        <v>1</v>
+      </c>
+      <c r="AG48" s="15">
+        <v>2</v>
+      </c>
+      <c r="AH48" s="15">
+        <v>1</v>
+      </c>
+      <c r="AI48" s="15"/>
+      <c r="AJ48" s="15">
+        <f>SUM(X48:AH48)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="14:40">
+      <c r="N49" s="1">
+        <v>0</v>
+      </c>
+      <c r="O49" s="1">
+        <v>1</v>
+      </c>
+      <c r="P49" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>1</v>
+      </c>
+      <c r="R49" s="1">
+        <v>1</v>
+      </c>
+      <c r="S49" s="1">
+        <v>1</v>
+      </c>
+      <c r="T49" s="1">
+        <v>1</v>
+      </c>
+      <c r="U49" s="1">
+        <v>1</v>
+      </c>
+      <c r="X49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AB49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AC49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="AE49" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AG49" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="AH49" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="50" spans="14:40">
+      <c r="N50" s="1">
+        <v>1</v>
+      </c>
+      <c r="O50" s="1">
+        <v>2</v>
+      </c>
+      <c r="P50" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>5</v>
+      </c>
+      <c r="R50" s="1">
+        <v>4</v>
+      </c>
+      <c r="S50" s="1">
+        <v>3</v>
+      </c>
+      <c r="T50" s="1">
+        <v>2</v>
+      </c>
+      <c r="U50" s="1">
+        <v>1</v>
+      </c>
+      <c r="X50" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="Z50" s="1">
+        <v>-2</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AB50" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="1">
+        <v>-1</v>
+      </c>
+      <c r="AD50" s="1">
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="53" spans="14:40">
+      <c r="AC53" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK53" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57" spans="14:40">
+      <c r="P57" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AC57" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF57" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>4</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>4</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>4</v>
+      </c>
+      <c r="AJ57" s="1">
+        <v>3</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="14:40">
+      <c r="P58" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA58" s="1">
+        <f>SUM(P58:X58)</f>
+        <v>3</v>
+      </c>
+      <c r="AC58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="1">
+        <v>2</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>3</v>
+      </c>
+      <c r="AF58" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>3</v>
+      </c>
+      <c r="AJ58" s="1">
+        <v>2</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>1</v>
+      </c>
+      <c r="AN58" s="1">
+        <f>SUM(AC58:AK58)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="60" spans="14:40">
+      <c r="P60" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>2</v>
+      </c>
+      <c r="R60" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="14:40">
+      <c r="P61" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>2</v>
+      </c>
+      <c r="R61" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA61" s="1">
+        <f>SUM(P61:X61)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="63" spans="14:40">
+      <c r="P63" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>2</v>
+      </c>
+      <c r="R63" s="1">
+        <v>2</v>
+      </c>
+      <c r="S63" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="14:40">
+      <c r="P64" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>2</v>
+      </c>
+      <c r="R64" s="1">
+        <v>2</v>
+      </c>
+      <c r="S64" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA64" s="1">
+        <f>SUM(P64:X64)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="16:30">
+      <c r="P66" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>2</v>
+      </c>
+      <c r="R66" s="1">
+        <v>2</v>
+      </c>
+      <c r="S66" s="1">
+        <v>2</v>
+      </c>
+      <c r="T66" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="16:30">
+      <c r="P67" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>2</v>
+      </c>
+      <c r="R67" s="1">
+        <v>1</v>
+      </c>
+      <c r="S67" s="1">
+        <v>2</v>
+      </c>
+      <c r="T67" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA67" s="1">
+        <f>SUM(P67:X67)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="69" spans="16:30">
+      <c r="P69" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>2</v>
+      </c>
+      <c r="R69" s="1">
+        <v>2</v>
+      </c>
+      <c r="S69" s="1">
+        <v>2</v>
+      </c>
+      <c r="T69" s="1">
+        <v>2</v>
+      </c>
+      <c r="U69" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="16:30">
+      <c r="P70" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>2</v>
+      </c>
+      <c r="R70" s="1">
+        <v>1</v>
+      </c>
+      <c r="S70" s="1">
+        <v>1</v>
+      </c>
+      <c r="T70" s="1">
+        <v>2</v>
+      </c>
+      <c r="U70" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA70" s="1">
+        <f>SUM(P70:X70)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77" spans="16:30">
+      <c r="V77" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="16:30">
+      <c r="P78" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>2</v>
+      </c>
+      <c r="R78" s="1">
+        <v>3</v>
+      </c>
+      <c r="S78" s="1">
+        <v>4</v>
+      </c>
+      <c r="T78" s="1">
+        <v>4</v>
+      </c>
+      <c r="U78" s="1">
+        <v>4</v>
+      </c>
+      <c r="V78" s="1">
+        <v>4</v>
+      </c>
+      <c r="W78" s="1">
+        <v>3</v>
+      </c>
+      <c r="X78" s="1">
+        <v>2</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>3</v>
+      </c>
+      <c r="Z78" s="1">
+        <v>3</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB78" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC78" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD78" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="16:30">
+      <c r="Q79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="R79" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="S79" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="T79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="U79" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="V79" s="1" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="80" spans="16:30">
+      <c r="P80" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>2</v>
+      </c>
+      <c r="R80" s="1">
+        <v>3</v>
+      </c>
+      <c r="S80" s="1">
+        <v>4</v>
+      </c>
+      <c r="T80" s="1">
+        <v>1</v>
+      </c>
+      <c r="U80" s="1">
+        <v>1</v>
+      </c>
+      <c r="V80" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F5902501-EAFB-4B75-B93B-8D65476D3FF1}">
   <dimension ref="A7:R19"/>
@@ -7221,10 +8204,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32FE7F7-B5E4-4E8D-81E0-4C33AFBF73DF}">
-  <dimension ref="C7:AI101"/>
+  <dimension ref="C7:AI163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A84" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="AD99" sqref="AD99"/>
+    <sheetView topLeftCell="A144" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="W162" sqref="W162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
@@ -8735,22 +9718,22 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="10:32">
+    <row r="81" spans="3:32">
       <c r="S81" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="82" spans="10:32">
+    <row r="82" spans="3:32">
       <c r="S82" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="83" spans="10:32">
+    <row r="83" spans="3:32">
       <c r="S83" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="10:32">
+    <row r="86" spans="3:32">
       <c r="J86" s="17"/>
       <c r="K86" s="17"/>
       <c r="L86" s="17"/>
@@ -8775,395 +9758,2027 @@
       <c r="AE86" s="17"/>
       <c r="AF86" s="17"/>
     </row>
-    <row r="87" spans="10:32">
+    <row r="87" spans="3:32">
+      <c r="D87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F87" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J87" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L87" s="1" t="s">
+        <v>16</v>
+      </c>
       <c r="M87" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>68</v>
+        <v>58</v>
+      </c>
+      <c r="O87" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q87" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R87" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="S87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T87" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U87" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="V87" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="T87" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="U87" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V87" s="1" t="s">
-        <v>66</v>
-      </c>
       <c r="W87" s="1" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="X87" s="1" t="s">
         <v>16</v>
       </c>
       <c r="Y87" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z87" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA87" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="88" spans="3:32">
+      <c r="C88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D88" s="1">
+        <v>3</v>
+      </c>
+      <c r="E88" s="1">
+        <v>2</v>
+      </c>
+      <c r="F88" s="1">
+        <v>1</v>
+      </c>
+      <c r="I88" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J88" s="1">
+        <v>1</v>
+      </c>
+      <c r="K88" s="1">
+        <v>1</v>
+      </c>
+      <c r="L88" s="1">
+        <v>1</v>
+      </c>
+      <c r="M88" s="1">
+        <v>1</v>
+      </c>
+      <c r="N88" s="1">
+        <v>1</v>
+      </c>
+      <c r="O88" s="1">
+        <v>1</v>
+      </c>
+      <c r="P88" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>1</v>
+      </c>
+      <c r="R88" s="1">
+        <v>1</v>
+      </c>
+      <c r="S88" s="1">
+        <v>1</v>
+      </c>
+      <c r="T88" s="1">
+        <v>1</v>
+      </c>
+      <c r="U88" s="1">
+        <v>1</v>
+      </c>
+      <c r="V88" s="1">
+        <v>0</v>
+      </c>
+      <c r="W88" s="1">
+        <v>0</v>
+      </c>
+      <c r="X88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="3:32">
+      <c r="C89" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D89" s="1">
+        <v>2</v>
+      </c>
+      <c r="E89" s="1">
+        <v>2</v>
+      </c>
+      <c r="F89" s="1">
+        <v>0</v>
+      </c>
+      <c r="I89" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J89" s="1">
+        <v>2</v>
+      </c>
+      <c r="K89" s="1">
+        <v>2</v>
+      </c>
+      <c r="L89" s="1">
+        <v>2</v>
+      </c>
+      <c r="M89" s="1">
+        <v>2</v>
+      </c>
+      <c r="N89" s="1">
+        <v>1</v>
+      </c>
+      <c r="O89" s="1">
+        <v>1</v>
+      </c>
+      <c r="P89" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>1</v>
+      </c>
+      <c r="R89" s="1">
+        <v>1</v>
+      </c>
+      <c r="S89" s="1">
+        <v>1</v>
+      </c>
+      <c r="T89" s="1">
+        <v>1</v>
+      </c>
+      <c r="U89" s="1">
+        <v>1</v>
+      </c>
+      <c r="V89" s="1">
+        <v>1</v>
+      </c>
+      <c r="W89" s="1">
+        <v>1</v>
+      </c>
+      <c r="X89" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC89" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="3:32">
+      <c r="C90" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D90" s="1">
+        <v>1</v>
+      </c>
+      <c r="E90" s="1">
+        <v>1</v>
+      </c>
+      <c r="F90" s="1">
+        <v>0</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J90" s="1">
+        <v>1</v>
+      </c>
+      <c r="K90" s="1">
+        <v>1</v>
+      </c>
+      <c r="L90" s="1">
+        <v>1</v>
+      </c>
+      <c r="M90" s="1">
+        <v>1</v>
+      </c>
+      <c r="N90" s="1">
+        <v>1</v>
+      </c>
+      <c r="O90" s="1">
+        <v>1</v>
+      </c>
+      <c r="P90" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>1</v>
+      </c>
+      <c r="R90" s="1">
+        <v>1</v>
+      </c>
+      <c r="S90" s="1">
+        <v>1</v>
+      </c>
+      <c r="T90" s="1">
+        <v>1</v>
+      </c>
+      <c r="U90" s="1">
+        <v>1</v>
+      </c>
+      <c r="V90" s="1">
+        <v>1</v>
+      </c>
+      <c r="W90" s="1">
+        <v>0</v>
+      </c>
+      <c r="X90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z90" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="3:32">
+      <c r="C91" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D91" s="1">
+        <v>3</v>
+      </c>
+      <c r="E91" s="1">
+        <v>1</v>
+      </c>
+      <c r="F91" s="1">
+        <v>2</v>
+      </c>
+      <c r="I91" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J91" s="1">
+        <v>2</v>
+      </c>
+      <c r="K91" s="1">
+        <v>2</v>
+      </c>
+      <c r="L91" s="1">
+        <v>2</v>
+      </c>
+      <c r="M91" s="1">
+        <v>2</v>
+      </c>
+      <c r="N91" s="1">
+        <v>2</v>
+      </c>
+      <c r="O91" s="1">
+        <v>2</v>
+      </c>
+      <c r="P91" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>2</v>
+      </c>
+      <c r="R91" s="1">
+        <v>2</v>
+      </c>
+      <c r="S91" s="1">
+        <v>1</v>
+      </c>
+      <c r="T91" s="1">
+        <v>1</v>
+      </c>
+      <c r="U91" s="1">
+        <v>1</v>
+      </c>
+      <c r="V91" s="1">
+        <v>1</v>
+      </c>
+      <c r="W91" s="1">
+        <v>1</v>
+      </c>
+      <c r="X91" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC91" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="3:32">
+      <c r="I92" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="93" spans="3:32">
+      <c r="I93" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J93" s="1">
+        <v>1</v>
+      </c>
+      <c r="K93" s="1">
+        <v>1</v>
+      </c>
+      <c r="L93" s="1">
+        <v>1</v>
+      </c>
+      <c r="M93" s="1">
+        <v>1</v>
+      </c>
+      <c r="N93" s="1">
+        <v>1</v>
+      </c>
+      <c r="O93" s="1">
+        <v>1</v>
+      </c>
+      <c r="P93" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>1</v>
+      </c>
+      <c r="R93" s="1">
+        <v>1</v>
+      </c>
+      <c r="S93" s="1">
+        <v>1</v>
+      </c>
+      <c r="T93" s="1">
+        <v>1</v>
+      </c>
+      <c r="U93" s="1">
+        <v>1</v>
+      </c>
+      <c r="V93" s="1">
+        <v>1</v>
+      </c>
+      <c r="W93" s="1">
+        <v>0</v>
+      </c>
+      <c r="X93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z93" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:32">
+      <c r="I94" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="95" spans="3:32">
+      <c r="I95" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="97" spans="9:27">
+      <c r="J97" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="N97" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="P97" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="T97" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="V97" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="W97" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y97" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z97" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA97" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="98" spans="9:27">
+      <c r="J98" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="K98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M98" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="Z87" s="1" t="s">
+      <c r="N98" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="O98" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AA87" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB87" s="1" t="s">
+      <c r="Q98" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="R98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="T98" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="U98" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="AC87" s="1" t="s">
+      <c r="V98" s="8" t="s">
         <v>64</v>
       </c>
-      <c r="AD87" s="1" t="s">
+      <c r="W98" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="AE87" s="1" t="s">
+      <c r="X98" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="AF87" s="1" t="s">
+      <c r="Y98" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="Z98" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="88" spans="10:32">
-      <c r="L88" s="1" t="s">
+      <c r="AA98" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="99" spans="9:27">
+      <c r="I99" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="M88" s="1">
-        <v>3</v>
-      </c>
-      <c r="N88" s="1">
-        <v>1</v>
-      </c>
-      <c r="R88" s="1" t="s">
+      <c r="J99" s="1">
+        <v>1</v>
+      </c>
+      <c r="K99" s="1">
+        <v>1</v>
+      </c>
+      <c r="L99" s="1">
+        <v>1</v>
+      </c>
+      <c r="M99" s="1">
+        <v>1</v>
+      </c>
+      <c r="N99" s="1">
+        <v>1</v>
+      </c>
+      <c r="O99" s="1">
+        <v>1</v>
+      </c>
+      <c r="P99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>1</v>
+      </c>
+      <c r="R99" s="1">
+        <v>1</v>
+      </c>
+      <c r="S99" s="1">
+        <v>1</v>
+      </c>
+      <c r="T99" s="1">
+        <v>1</v>
+      </c>
+      <c r="U99" s="1">
+        <v>1</v>
+      </c>
+      <c r="V99" s="1">
+        <v>1</v>
+      </c>
+      <c r="W99" s="1">
+        <v>1</v>
+      </c>
+      <c r="X99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z99" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="9:27">
+      <c r="I100" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="J100" s="1">
+        <v>0</v>
+      </c>
+      <c r="K100" s="1">
+        <v>0</v>
+      </c>
+      <c r="L100" s="1">
+        <v>0</v>
+      </c>
+      <c r="M100" s="1">
+        <v>0</v>
+      </c>
+      <c r="N100" s="1">
+        <v>1</v>
+      </c>
+      <c r="O100" s="1">
+        <v>1</v>
+      </c>
+      <c r="P100" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>1</v>
+      </c>
+      <c r="R100" s="1">
+        <v>1</v>
+      </c>
+      <c r="S100" s="1">
+        <v>1</v>
+      </c>
+      <c r="T100" s="1">
+        <v>1</v>
+      </c>
+      <c r="U100" s="1">
+        <v>1</v>
+      </c>
+      <c r="V100" s="1">
+        <v>1</v>
+      </c>
+      <c r="W100" s="1">
+        <v>1</v>
+      </c>
+      <c r="X100" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y100" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z100" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA100" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="9:27">
+      <c r="I101" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="S88" s="8">
-        <v>2</v>
-      </c>
-      <c r="T88" s="8">
-        <v>2</v>
-      </c>
-      <c r="U88" s="8">
-        <v>2</v>
-      </c>
-      <c r="V88" s="8">
-        <v>2</v>
-      </c>
-      <c r="W88" s="8">
-        <v>2</v>
-      </c>
-      <c r="X88" s="8">
-        <v>2</v>
-      </c>
-      <c r="Y88" s="8">
-        <v>2</v>
-      </c>
-      <c r="Z88" s="8">
-        <v>2</v>
-      </c>
-      <c r="AA88" s="8">
-        <v>2</v>
-      </c>
-      <c r="AB88" s="8">
-        <v>2</v>
-      </c>
-      <c r="AC88" s="8">
-        <v>2</v>
-      </c>
-      <c r="AD88" s="8">
-        <v>2</v>
-      </c>
-      <c r="AE88" s="8">
-        <v>2</v>
-      </c>
-      <c r="AF88" s="8">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="89" spans="10:32">
-      <c r="L89" s="1" t="s">
+      <c r="J101" s="1">
+        <v>0</v>
+      </c>
+      <c r="K101" s="1">
+        <v>0</v>
+      </c>
+      <c r="L101" s="1">
+        <v>0</v>
+      </c>
+      <c r="M101" s="1">
+        <v>0</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0</v>
+      </c>
+      <c r="O101" s="1">
+        <v>0</v>
+      </c>
+      <c r="P101" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>1</v>
+      </c>
+      <c r="R101" s="1">
+        <v>1</v>
+      </c>
+      <c r="S101" s="1">
+        <v>1</v>
+      </c>
+      <c r="T101" s="1">
+        <v>1</v>
+      </c>
+      <c r="U101" s="1">
+        <v>1</v>
+      </c>
+      <c r="V101" s="1">
+        <v>1</v>
+      </c>
+      <c r="W101" s="1">
+        <v>1</v>
+      </c>
+      <c r="X101" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y101" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z101" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA101" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="9:27">
+      <c r="I102" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J102" s="1">
+        <v>0</v>
+      </c>
+      <c r="K102" s="1">
+        <v>0</v>
+      </c>
+      <c r="L102" s="1">
+        <v>0</v>
+      </c>
+      <c r="M102" s="1">
+        <v>0</v>
+      </c>
+      <c r="N102" s="1">
+        <v>0</v>
+      </c>
+      <c r="O102" s="1">
+        <v>0</v>
+      </c>
+      <c r="P102" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q102" s="1">
+        <v>0</v>
+      </c>
+      <c r="R102" s="1">
+        <v>0</v>
+      </c>
+      <c r="S102" s="1">
+        <v>1</v>
+      </c>
+      <c r="T102" s="1">
+        <v>1</v>
+      </c>
+      <c r="U102" s="1">
+        <v>1</v>
+      </c>
+      <c r="V102" s="1">
+        <v>1</v>
+      </c>
+      <c r="W102" s="1">
+        <v>1</v>
+      </c>
+      <c r="X102" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y102" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z102" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA102" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103" spans="9:27">
+      <c r="I103" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J103" s="1">
+        <v>0</v>
+      </c>
+      <c r="K103" s="1">
+        <v>0</v>
+      </c>
+      <c r="L103" s="1">
+        <v>0</v>
+      </c>
+      <c r="M103" s="1">
+        <v>0</v>
+      </c>
+      <c r="N103" s="1">
+        <v>0</v>
+      </c>
+      <c r="O103" s="1">
+        <v>0</v>
+      </c>
+      <c r="P103" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q103" s="1">
+        <v>0</v>
+      </c>
+      <c r="R103" s="1">
+        <v>0</v>
+      </c>
+      <c r="S103" s="1">
+        <v>0</v>
+      </c>
+      <c r="T103" s="1">
+        <v>0</v>
+      </c>
+      <c r="U103" s="1">
+        <v>1</v>
+      </c>
+      <c r="V103" s="1">
+        <v>1</v>
+      </c>
+      <c r="W103" s="1">
+        <v>1</v>
+      </c>
+      <c r="X103" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y103" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z103" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA103" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="9:27">
+      <c r="I104" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="J104" s="1">
+        <v>0</v>
+      </c>
+      <c r="K104" s="1">
+        <v>0</v>
+      </c>
+      <c r="L104" s="1">
+        <v>0</v>
+      </c>
+      <c r="M104" s="1">
+        <v>0</v>
+      </c>
+      <c r="N104" s="1">
+        <v>0</v>
+      </c>
+      <c r="O104" s="1">
+        <v>0</v>
+      </c>
+      <c r="P104" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q104" s="1">
+        <v>0</v>
+      </c>
+      <c r="R104" s="1">
+        <v>0</v>
+      </c>
+      <c r="S104" s="1">
+        <v>0</v>
+      </c>
+      <c r="T104" s="1">
+        <v>0</v>
+      </c>
+      <c r="U104" s="1">
+        <v>0</v>
+      </c>
+      <c r="V104" s="1">
+        <v>0</v>
+      </c>
+      <c r="W104" s="1">
+        <v>1</v>
+      </c>
+      <c r="X104" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y104" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z104" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA104" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105" spans="9:27">
+      <c r="I105" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J105" s="1">
+        <v>0</v>
+      </c>
+      <c r="K105" s="1">
+        <v>0</v>
+      </c>
+      <c r="L105" s="1">
+        <v>0</v>
+      </c>
+      <c r="M105" s="1">
+        <v>0</v>
+      </c>
+      <c r="N105" s="1">
+        <v>0</v>
+      </c>
+      <c r="O105" s="1">
+        <v>0</v>
+      </c>
+      <c r="P105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q105" s="1">
+        <v>0</v>
+      </c>
+      <c r="R105" s="1">
+        <v>0</v>
+      </c>
+      <c r="S105" s="1">
+        <v>0</v>
+      </c>
+      <c r="T105" s="1">
+        <v>0</v>
+      </c>
+      <c r="U105" s="1">
+        <v>0</v>
+      </c>
+      <c r="V105" s="1">
+        <v>0</v>
+      </c>
+      <c r="W105" s="1">
+        <v>0</v>
+      </c>
+      <c r="X105" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y105" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z105" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA105" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="9:27">
+      <c r="I106" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="M89" s="1">
-        <v>2</v>
-      </c>
-      <c r="N89" s="1">
-        <v>0</v>
-      </c>
-      <c r="R89" s="16" t="s">
+      <c r="J106" s="1">
+        <v>0</v>
+      </c>
+      <c r="K106" s="1">
+        <v>0</v>
+      </c>
+      <c r="L106" s="1">
+        <v>0</v>
+      </c>
+      <c r="M106" s="1">
+        <v>0</v>
+      </c>
+      <c r="N106" s="1">
+        <v>0</v>
+      </c>
+      <c r="O106" s="1">
+        <v>0</v>
+      </c>
+      <c r="P106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q106" s="1">
+        <v>0</v>
+      </c>
+      <c r="R106" s="1">
+        <v>0</v>
+      </c>
+      <c r="S106" s="1">
+        <v>0</v>
+      </c>
+      <c r="T106" s="1">
+        <v>0</v>
+      </c>
+      <c r="U106" s="1">
+        <v>0</v>
+      </c>
+      <c r="V106" s="1">
+        <v>0</v>
+      </c>
+      <c r="W106" s="1">
+        <v>0</v>
+      </c>
+      <c r="X106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y106" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z106" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA106" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="9:27">
+      <c r="I107" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J107" s="1">
+        <v>0</v>
+      </c>
+      <c r="K107" s="1">
+        <v>0</v>
+      </c>
+      <c r="L107" s="1">
+        <v>0</v>
+      </c>
+      <c r="M107" s="1">
+        <v>0</v>
+      </c>
+      <c r="N107" s="1">
+        <v>0</v>
+      </c>
+      <c r="O107" s="1">
+        <v>0</v>
+      </c>
+      <c r="P107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q107" s="1">
+        <v>0</v>
+      </c>
+      <c r="R107" s="1">
+        <v>0</v>
+      </c>
+      <c r="S107" s="1">
+        <v>0</v>
+      </c>
+      <c r="T107" s="1">
+        <v>0</v>
+      </c>
+      <c r="U107" s="1">
+        <v>0</v>
+      </c>
+      <c r="V107" s="1">
+        <v>0</v>
+      </c>
+      <c r="W107" s="1">
+        <v>0</v>
+      </c>
+      <c r="X107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y107" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z107" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA107" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="5:33">
+      <c r="J115" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K115" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="L115" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="S89" s="1">
-        <v>2</v>
-      </c>
-      <c r="T89" s="1">
-        <v>2</v>
-      </c>
-      <c r="U89" s="1">
-        <v>2</v>
-      </c>
-      <c r="V89" s="1">
-        <v>2</v>
-      </c>
-      <c r="W89" s="1">
-        <v>1</v>
-      </c>
-      <c r="X89" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y89" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z89" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA89" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB89" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC89" s="1">
-        <v>1</v>
-      </c>
-      <c r="AD89" s="1">
-        <v>1</v>
-      </c>
-      <c r="AE89" s="1">
-        <v>1</v>
-      </c>
-      <c r="AF89" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="10:32">
-      <c r="L90" s="1" t="s">
+      <c r="M115" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="N115" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="O115" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="P115" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q115" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="116" spans="5:33">
+      <c r="E116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F116" s="1">
+        <v>2</v>
+      </c>
+      <c r="G116" s="1">
+        <v>0</v>
+      </c>
+      <c r="I116" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="J116" s="1">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1">
+        <v>0</v>
+      </c>
+      <c r="L116" s="1">
+        <v>0</v>
+      </c>
+      <c r="M116" s="1">
+        <v>0</v>
+      </c>
+      <c r="N116" s="1">
+        <v>1</v>
+      </c>
+      <c r="O116" s="1">
+        <v>1</v>
+      </c>
+      <c r="P116" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q116" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117" spans="5:33">
+      <c r="E117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F117" s="1">
+        <v>1</v>
+      </c>
+      <c r="G117" s="1">
+        <v>0</v>
+      </c>
+      <c r="I117" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="J117" s="1">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1">
+        <v>0</v>
+      </c>
+      <c r="L117" s="1">
+        <v>0</v>
+      </c>
+      <c r="M117" s="1">
+        <v>0</v>
+      </c>
+      <c r="N117" s="1">
+        <v>0</v>
+      </c>
+      <c r="O117" s="1">
+        <v>0</v>
+      </c>
+      <c r="P117" s="1">
+        <v>0</v>
+      </c>
+      <c r="Q117" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="5:33">
+      <c r="E118" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M90" s="1">
-        <v>1</v>
-      </c>
-      <c r="N90" s="1">
-        <v>0</v>
-      </c>
-      <c r="R90" s="1" t="s">
+      <c r="F118" s="1">
+        <v>1</v>
+      </c>
+      <c r="G118" s="1">
+        <v>1</v>
+      </c>
+      <c r="I118" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="J118" s="1">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1">
+        <v>0</v>
+      </c>
+      <c r="L118" s="1">
+        <v>0</v>
+      </c>
+      <c r="M118" s="1">
+        <v>0</v>
+      </c>
+      <c r="N118" s="1">
+        <v>0</v>
+      </c>
+      <c r="O118" s="1">
+        <v>0</v>
+      </c>
+      <c r="P118" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="5:33">
+      <c r="I119" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="91" spans="10:32">
-      <c r="R91" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="92" spans="10:32">
-      <c r="R92" s="16" t="s">
-        <v>65</v>
-      </c>
-      <c r="S92" s="1">
-        <v>1</v>
-      </c>
-      <c r="T92" s="1">
-        <v>1</v>
-      </c>
-      <c r="U92" s="1">
-        <v>1</v>
-      </c>
-      <c r="V92" s="1">
-        <v>1</v>
-      </c>
-      <c r="W92" s="1">
-        <v>1</v>
-      </c>
-      <c r="X92" s="1">
-        <v>1</v>
-      </c>
-      <c r="Y92" s="1">
-        <v>1</v>
-      </c>
-      <c r="Z92" s="1">
-        <v>1</v>
-      </c>
-      <c r="AA92" s="1">
-        <v>1</v>
-      </c>
-      <c r="AB92" s="1">
-        <v>1</v>
-      </c>
-      <c r="AC92" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD92" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE92" s="1">
-        <v>0</v>
-      </c>
-      <c r="AF92" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93" spans="10:32">
-      <c r="R93" s="16" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="95" spans="10:32">
-      <c r="S95" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="T95" s="1" t="s">
+    <row r="121" spans="5:33">
+      <c r="AA121" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="122" spans="5:33">
+      <c r="AF122" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="5:33">
+      <c r="J123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K123" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="U95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="V95" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="W95" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="X95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="Y95" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="Z95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AA95" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="AB95" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="AC95" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="AD95" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="AE95" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF95" s="1" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="96" spans="10:32">
-      <c r="R96" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="S96" s="8">
-        <v>2</v>
-      </c>
-      <c r="T96" s="8">
-        <v>2</v>
-      </c>
-      <c r="U96" s="8">
-        <v>2</v>
-      </c>
-      <c r="V96" s="8">
-        <v>2</v>
-      </c>
-      <c r="W96" s="8">
-        <v>0</v>
-      </c>
-      <c r="X96" s="8">
-        <v>1</v>
-      </c>
-      <c r="Y96" s="8">
-        <v>1</v>
-      </c>
-      <c r="Z96" s="8">
-        <v>1</v>
-      </c>
-      <c r="AA96" s="8">
-        <v>1</v>
-      </c>
-      <c r="AB96" s="8">
-        <v>1</v>
-      </c>
-      <c r="AC96" s="8">
-        <v>0</v>
-      </c>
-      <c r="AD96" s="8">
-        <v>1</v>
-      </c>
-      <c r="AE96" s="8">
-        <v>1</v>
-      </c>
-      <c r="AF96" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97" spans="18:31">
-      <c r="R97" s="16" t="s">
-        <v>58</v>
-      </c>
-      <c r="S97" s="1">
-        <v>0</v>
-      </c>
-      <c r="T97" s="1">
-        <v>0</v>
-      </c>
-      <c r="U97" s="1">
-        <v>0</v>
-      </c>
-      <c r="V97" s="1">
-        <v>1</v>
-      </c>
-      <c r="W97" s="1">
-        <v>2</v>
-      </c>
-      <c r="X97" s="1">
-        <v>2</v>
-      </c>
-      <c r="Y97" s="1">
-        <v>2</v>
-      </c>
-      <c r="Z97" s="1">
-        <v>2</v>
-      </c>
-      <c r="AA97" s="1">
-        <v>2</v>
-      </c>
-      <c r="AB97" s="1">
-        <v>2</v>
-      </c>
-      <c r="AC97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AD97" s="1">
-        <v>0</v>
-      </c>
-      <c r="AE97" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="18:31">
-      <c r="R98" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="99" spans="18:31">
-      <c r="R99" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="100" spans="18:31">
-      <c r="R100" s="16" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="101" spans="18:31">
-      <c r="R101" s="16" t="s">
-        <v>58</v>
+      <c r="L123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="R123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="S123" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="X123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC123" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE123" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF123" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG123" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="124" spans="5:33">
+      <c r="E124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F124" s="1">
+        <v>3</v>
+      </c>
+      <c r="G124" s="1">
+        <v>1</v>
+      </c>
+      <c r="I124" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J124" s="1">
+        <v>1</v>
+      </c>
+      <c r="K124" s="1">
+        <v>1</v>
+      </c>
+      <c r="L124" s="1">
+        <v>1</v>
+      </c>
+      <c r="M124" s="1">
+        <v>1</v>
+      </c>
+      <c r="N124" s="1">
+        <v>1</v>
+      </c>
+      <c r="O124" s="1">
+        <v>1</v>
+      </c>
+      <c r="P124" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>1</v>
+      </c>
+      <c r="R124" s="1">
+        <v>1</v>
+      </c>
+      <c r="S124" s="1">
+        <v>1</v>
+      </c>
+      <c r="W124" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="125" spans="5:33">
+      <c r="E125" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F125" s="1">
+        <v>1</v>
+      </c>
+      <c r="G125" s="1">
+        <v>2</v>
+      </c>
+      <c r="I125" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L125" s="1">
+        <v>1</v>
+      </c>
+      <c r="M125" s="1">
+        <v>1</v>
+      </c>
+      <c r="N125" s="1">
+        <v>1</v>
+      </c>
+      <c r="O125" s="1">
+        <v>1</v>
+      </c>
+      <c r="P125" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>1</v>
+      </c>
+      <c r="R125" s="1">
+        <v>1</v>
+      </c>
+      <c r="S125" s="1">
+        <v>1</v>
+      </c>
+      <c r="W125" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="126" spans="5:33">
+      <c r="I126" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M126" s="1">
+        <v>1</v>
+      </c>
+      <c r="N126" s="1">
+        <v>1</v>
+      </c>
+      <c r="O126" s="1">
+        <v>1</v>
+      </c>
+      <c r="P126" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>1</v>
+      </c>
+      <c r="R126" s="1">
+        <v>1</v>
+      </c>
+      <c r="S126" s="1">
+        <v>1</v>
+      </c>
+      <c r="U126" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W126" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="127" spans="5:33">
+      <c r="I127" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O127" s="1">
+        <v>1</v>
+      </c>
+      <c r="P127" s="1">
+        <v>1</v>
+      </c>
+      <c r="Q127" s="1">
+        <v>1</v>
+      </c>
+      <c r="R127" s="1">
+        <v>1</v>
+      </c>
+      <c r="S127" s="1">
+        <v>1</v>
+      </c>
+      <c r="W127" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="128" spans="5:33">
+      <c r="I128" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>1</v>
+      </c>
+      <c r="R128" s="1">
+        <v>1</v>
+      </c>
+      <c r="S128" s="1">
+        <v>1</v>
+      </c>
+      <c r="W128" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="129" spans="5:34">
+      <c r="I129" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S129" s="1">
+        <v>1</v>
+      </c>
+      <c r="W129" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="132" spans="5:34">
+      <c r="W132" s="1">
+        <v>0</v>
+      </c>
+      <c r="X132" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y132" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z132" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="133" spans="5:34">
+      <c r="E133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="L133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="M133" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="W133" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="X133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z133" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD133" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE133" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF133" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG133" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH133" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="134" spans="5:34">
+      <c r="E134" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F134" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J134" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V134" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC134" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="135" spans="5:34">
+      <c r="E135" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="V135" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC135" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="136" spans="5:34">
+      <c r="E136" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V136" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC136" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="137" spans="5:34">
+      <c r="E137" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AC137" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="138" spans="5:34">
+      <c r="E138" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="141" spans="5:34">
+      <c r="AE141" s="1">
+        <v>1</v>
+      </c>
+      <c r="AF141" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG141" s="1">
+        <v>1</v>
+      </c>
+      <c r="AH141" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="5:34">
+      <c r="S142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T142" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="U142" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z142" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA142" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE142" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF142" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG142" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH142" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="143" spans="5:34">
+      <c r="S143" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="T143" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="U143" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="W143" s="1">
+        <v>0</v>
+      </c>
+      <c r="X143" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y143" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z143" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA143" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD143" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE143" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF143" s="1">
+        <v>1</v>
+      </c>
+      <c r="AG143" s="1">
+        <v>0</v>
+      </c>
+      <c r="AH143" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="5:34">
+      <c r="S144" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T144" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="U144" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="W144" s="1">
+        <v>1</v>
+      </c>
+      <c r="X144" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="Y144" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD144" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AE144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AF144" s="1">
+        <v>0</v>
+      </c>
+      <c r="AG144" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="145" spans="18:31">
+      <c r="S145" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="T145" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="U145" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="W145" s="1">
+        <v>0</v>
+      </c>
+      <c r="X145" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y145" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z145" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA145" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD145" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AE145" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="18:31">
+      <c r="S146" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="T146" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="U146" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="W146" s="1">
+        <v>1</v>
+      </c>
+      <c r="X146" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y146" s="1">
+        <v>0</v>
+      </c>
+      <c r="Z146" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA146" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="149" spans="18:31">
+      <c r="S149" s="1">
+        <v>1</v>
+      </c>
+      <c r="T149" s="1">
+        <v>1</v>
+      </c>
+      <c r="U149" s="1">
+        <v>1</v>
+      </c>
+      <c r="V149" s="1">
+        <v>1</v>
+      </c>
+      <c r="W149" s="1">
+        <v>1</v>
+      </c>
+      <c r="X149" s="1">
+        <v>1</v>
+      </c>
+      <c r="Y149" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AA149" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB149" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC149" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="18:31">
+      <c r="T150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="V150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="W150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y150" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z150" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA150" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB150" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC150" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="151" spans="18:31">
+      <c r="S151" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="T151" s="1">
+        <v>1</v>
+      </c>
+      <c r="U151" s="1">
+        <v>0</v>
+      </c>
+      <c r="V151" s="1">
+        <v>1</v>
+      </c>
+      <c r="W151" s="1">
+        <v>0</v>
+      </c>
+      <c r="X151" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y151" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AA151" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB151" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC151" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="18:31">
+      <c r="S152" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="153" spans="18:31">
+      <c r="S153" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="154" spans="18:31">
+      <c r="S154" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="155" spans="18:31">
+      <c r="S155" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="156" spans="18:31">
+      <c r="S156" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="U156" s="19"/>
+      <c r="V156" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="W156" s="19"/>
+      <c r="X156" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="157" spans="18:31">
+      <c r="U157" s="19">
+        <v>0</v>
+      </c>
+      <c r="V157" s="19">
+        <v>1</v>
+      </c>
+      <c r="W157" s="19">
+        <v>2</v>
+      </c>
+      <c r="X157" s="19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="18:31">
+      <c r="U158" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="V158" s="19" t="s">
+        <v>56</v>
+      </c>
+      <c r="W158" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="X158" s="19"/>
+    </row>
+    <row r="159" spans="18:31">
+      <c r="R159" s="19"/>
+      <c r="S159" s="19">
+        <v>0</v>
+      </c>
+      <c r="T159" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="U159" s="1">
+        <v>1</v>
+      </c>
+      <c r="V159" s="1">
+        <v>0</v>
+      </c>
+      <c r="W159" s="1">
+        <v>0</v>
+      </c>
+      <c r="X159" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="18:31">
+      <c r="R160" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S160" s="19">
+        <v>1</v>
+      </c>
+      <c r="T160" s="19" t="s">
+        <v>52</v>
+      </c>
+      <c r="U160" s="1">
+        <v>1</v>
+      </c>
+      <c r="V160" s="1">
+        <v>0</v>
+      </c>
+      <c r="W160" s="1">
+        <v>0</v>
+      </c>
+      <c r="X160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="18:24">
+      <c r="R161" s="19"/>
+      <c r="S161" s="19">
+        <v>2</v>
+      </c>
+      <c r="T161" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="U161" s="1">
+        <v>0</v>
+      </c>
+      <c r="V161" s="1">
+        <v>1</v>
+      </c>
+      <c r="W161" s="1">
+        <v>0</v>
+      </c>
+      <c r="X161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="18:24">
+      <c r="R162" s="19"/>
+      <c r="S162" s="19">
+        <v>3</v>
+      </c>
+      <c r="T162" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="U162" s="1">
+        <v>0</v>
+      </c>
+      <c r="V162" s="1">
+        <v>1</v>
+      </c>
+      <c r="W162" s="1">
+        <v>1</v>
+      </c>
+      <c r="X162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="18:24">
+      <c r="R163" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="S163" s="19">
+        <v>4</v>
+      </c>
+      <c r="T163" s="19"/>
+      <c r="U163" s="1">
+        <v>0</v>
+      </c>
+      <c r="V163" s="1">
+        <v>0</v>
+      </c>
+      <c r="W163" s="1">
+        <v>0</v>
+      </c>
+      <c r="X163" s="1">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="R156:T158 U159:Y163">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="equal">
+      <formula>1</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
+++ b/zz Non-LeetCode/Random Study Session 1/knapsack.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Portalz\Desktop\Small Projects\LeetCode\zz Non-LeetCode\Random Study Session 1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53A4D539-003B-4CE6-8675-C1C1C210F5D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1531FA4-ED00-4022-9B0A-BE968510831F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -66,7 +66,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="607" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="616" uniqueCount="94">
   <si>
     <t>Size</t>
   </si>
@@ -1867,8 +1867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E971C406-2954-4140-A9F3-E7B0E7A7F757}">
   <dimension ref="L7:AN80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L70" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="V79" sqref="V79"/>
+    <sheetView topLeftCell="L13" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="AE76" sqref="AE76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
@@ -8206,8 +8206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D32FE7F7-B5E4-4E8D-81E0-4C33AFBF73DF}">
   <dimension ref="C7:AI163"/>
   <sheetViews>
-    <sheetView topLeftCell="A144" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="W162" sqref="W162"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AL138" sqref="AL138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.7109375" defaultRowHeight="15"/>
@@ -11662,6 +11662,18 @@
         <v>57</v>
       </c>
       <c r="X158" s="19"/>
+      <c r="AA158" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AB158" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AC158" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AD158" s="1" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="159" spans="18:31">
       <c r="R159" s="19"/>
@@ -11683,6 +11695,21 @@
       <c r="X159" s="1">
         <v>0</v>
       </c>
+      <c r="Z159" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA159" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB159" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC159" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD159" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="160" spans="18:31">
       <c r="R160" s="19" t="s">
@@ -11706,8 +11733,23 @@
       <c r="X160" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="18:24">
+      <c r="Z160" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="AA160" s="1">
+        <v>1</v>
+      </c>
+      <c r="AB160" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC160" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD160" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="18:30">
       <c r="R161" s="19"/>
       <c r="S161" s="19">
         <v>2</v>
@@ -11727,8 +11769,23 @@
       <c r="X161" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="18:24">
+      <c r="Z161" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA161" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB161" s="1">
+        <v>1</v>
+      </c>
+      <c r="AC161" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD161" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="18:30">
       <c r="R162" s="19"/>
       <c r="S162" s="19">
         <v>3</v>
@@ -11748,8 +11805,23 @@
       <c r="X162" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="18:24">
+      <c r="Z162" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA162" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB162" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC162" s="1">
+        <v>1</v>
+      </c>
+      <c r="AD162" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="18:30">
       <c r="R163" s="19" t="s">
         <v>79</v>
       </c>
@@ -11767,6 +11839,21 @@
         <v>0</v>
       </c>
       <c r="X163" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z163" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AA163" s="1">
+        <v>0</v>
+      </c>
+      <c r="AB163" s="1">
+        <v>0</v>
+      </c>
+      <c r="AC163" s="1">
+        <v>0</v>
+      </c>
+      <c r="AD163" s="1">
         <v>1</v>
       </c>
     </row>
